--- a/data/curation/curated/base_reactions.xlsx
+++ b/data/curation/curated/base_reactions.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stelmo\Documents\GitHub\pkgs\VibrioNatriegens\data\curation\curated\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C60DF7F-FDB8-4458-A796-8D7F42BD0B6E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8B8A86-598C-4343-8A47-06EB4F128D98}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10380" xr2:uid="{6E112BAF-17F1-4FC4-AAE1-C0D27B9CAB85}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10380" activeTab="1" xr2:uid="{6E112BAF-17F1-4FC4-AAE1-C0D27B9CAB85}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="metabolism" sheetId="1" r:id="rId1"/>
+    <sheet name="transporters" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3444" uniqueCount="1800">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4016" uniqueCount="1964">
   <si>
     <t>Protein</t>
   </si>
@@ -5425,6 +5426,498 @@
   </si>
   <si>
     <t>R10121</t>
+  </si>
+  <si>
+    <t>WP_014231803.1</t>
+  </si>
+  <si>
+    <t>WP_014231802.1</t>
+  </si>
+  <si>
+    <t>WP_020333261.1</t>
+  </si>
+  <si>
+    <t>Metabolite</t>
+  </si>
+  <si>
+    <t>Tungsten</t>
+  </si>
+  <si>
+    <t>KeggID</t>
+  </si>
+  <si>
+    <t>thiamine</t>
+  </si>
+  <si>
+    <t>WP_020335830.1</t>
+  </si>
+  <si>
+    <t>WP_020335829.1</t>
+  </si>
+  <si>
+    <t>WP_020335828.1</t>
+  </si>
+  <si>
+    <t>taurine</t>
+  </si>
+  <si>
+    <t>WP_020335005.1</t>
+  </si>
+  <si>
+    <t>WP_014235081.1</t>
+  </si>
+  <si>
+    <t>WP_020335006.1</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>WP_020335262.1</t>
+  </si>
+  <si>
+    <t>WP_020333821.1</t>
+  </si>
+  <si>
+    <t>WP_231119409.1</t>
+  </si>
+  <si>
+    <t>WP_020333823.1</t>
+  </si>
+  <si>
+    <t>molybdate</t>
+  </si>
+  <si>
+    <t>WP_024373020.1</t>
+  </si>
+  <si>
+    <t>WP_020334372.1</t>
+  </si>
+  <si>
+    <t>WP_020334373.1</t>
+  </si>
+  <si>
+    <t>WP_014232921.1</t>
+  </si>
+  <si>
+    <t>WP_020333925.1</t>
+  </si>
+  <si>
+    <t>WP_020333924.1</t>
+  </si>
+  <si>
+    <t>iron(III)</t>
+  </si>
+  <si>
+    <t>WP_014231260.1</t>
+  </si>
+  <si>
+    <t>WP_014231259.1</t>
+  </si>
+  <si>
+    <t>WP_020332831.1</t>
+  </si>
+  <si>
+    <t>WP_014231257.1</t>
+  </si>
+  <si>
+    <t>putrescine</t>
+  </si>
+  <si>
+    <t>WP_014231828.1</t>
+  </si>
+  <si>
+    <t>WP_020333276.1</t>
+  </si>
+  <si>
+    <t>WP_020333275.1</t>
+  </si>
+  <si>
+    <t>WP_020333277.1</t>
+  </si>
+  <si>
+    <t>spermidine/putrescine</t>
+  </si>
+  <si>
+    <t>glycine betaine/proline</t>
+  </si>
+  <si>
+    <t>WP_020336361.1</t>
+  </si>
+  <si>
+    <t>WP_020336359.1</t>
+  </si>
+  <si>
+    <t>WP_014231965.1</t>
+  </si>
+  <si>
+    <t>WP_020333795.1</t>
+  </si>
+  <si>
+    <t>WP_024372589.1</t>
+  </si>
+  <si>
+    <t>WP_014233985.1</t>
+  </si>
+  <si>
+    <t>phosphate</t>
+  </si>
+  <si>
+    <t>WP_020333633.1</t>
+  </si>
+  <si>
+    <t>WP_020333632.1</t>
+  </si>
+  <si>
+    <t>WP_020333631.1</t>
+  </si>
+  <si>
+    <t>WP_014230907.1</t>
+  </si>
+  <si>
+    <t>WP_014234909.1</t>
+  </si>
+  <si>
+    <t>WP_014234910.1</t>
+  </si>
+  <si>
+    <t>WP_014234911.1</t>
+  </si>
+  <si>
+    <t>WP_014234912.1</t>
+  </si>
+  <si>
+    <t>arginine</t>
+  </si>
+  <si>
+    <t>WP_020335984.1</t>
+  </si>
+  <si>
+    <t>WP_020335985.1</t>
+  </si>
+  <si>
+    <t>WP_014234360.1</t>
+  </si>
+  <si>
+    <t>WP_014234361.1</t>
+  </si>
+  <si>
+    <t>WP_020336408.1</t>
+  </si>
+  <si>
+    <t>L-amino acid general</t>
+  </si>
+  <si>
+    <t>WP_020336407.1</t>
+  </si>
+  <si>
+    <t>WP_020336406.1</t>
+  </si>
+  <si>
+    <t>WP_020336404.1</t>
+  </si>
+  <si>
+    <t>WP_020333316.1</t>
+  </si>
+  <si>
+    <t>WP_020333315.1</t>
+  </si>
+  <si>
+    <t>WP_014231907.1</t>
+  </si>
+  <si>
+    <t>WP_020333314.1</t>
+  </si>
+  <si>
+    <t>S-methylcysteine</t>
+  </si>
+  <si>
+    <t>WP_014230421.1</t>
+  </si>
+  <si>
+    <t>WP_014230420.1</t>
+  </si>
+  <si>
+    <t>WP_020333576.1</t>
+  </si>
+  <si>
+    <t>arginine/ornithine</t>
+  </si>
+  <si>
+    <t>WP_014231305.1</t>
+  </si>
+  <si>
+    <t>WP_014231304.1</t>
+  </si>
+  <si>
+    <t>WP_014231303.1</t>
+  </si>
+  <si>
+    <t>WP_014231302.1</t>
+  </si>
+  <si>
+    <t>Branched amino acid</t>
+  </si>
+  <si>
+    <t>WP_020333763.1</t>
+  </si>
+  <si>
+    <t>WP_014233946.1</t>
+  </si>
+  <si>
+    <t>WP_014233947.1</t>
+  </si>
+  <si>
+    <t>WP_014233948.1</t>
+  </si>
+  <si>
+    <t>WP_020334352.1</t>
+  </si>
+  <si>
+    <t>WP_020334353.1</t>
+  </si>
+  <si>
+    <t>WP_303621067.1</t>
+  </si>
+  <si>
+    <t>WP_020333761.1</t>
+  </si>
+  <si>
+    <t>D-methionine</t>
+  </si>
+  <si>
+    <t>WP_014231035.1</t>
+  </si>
+  <si>
+    <t>WP_020333714.1</t>
+  </si>
+  <si>
+    <t>WP_014231033.1</t>
+  </si>
+  <si>
+    <t>Urea</t>
+  </si>
+  <si>
+    <t>WP_014231740.1</t>
+  </si>
+  <si>
+    <t>WP_014231739.1</t>
+  </si>
+  <si>
+    <t>WP_020333224.1</t>
+  </si>
+  <si>
+    <t>WP_020333223.1</t>
+  </si>
+  <si>
+    <t>WP_014231736.1</t>
+  </si>
+  <si>
+    <t>heme</t>
+  </si>
+  <si>
+    <t>WP_020334589.1</t>
+  </si>
+  <si>
+    <t>WP_014232641.1</t>
+  </si>
+  <si>
+    <t>WP_014232640.1</t>
+  </si>
+  <si>
+    <t>WP_014232643.1</t>
+  </si>
+  <si>
+    <t>glucose/mannose</t>
+  </si>
+  <si>
+    <t>WP_020336136.1</t>
+  </si>
+  <si>
+    <t>WP_020336135.1</t>
+  </si>
+  <si>
+    <t>WP_014231208.1</t>
+  </si>
+  <si>
+    <t>L-arabinose</t>
+  </si>
+  <si>
+    <t>WP_014235069.1</t>
+  </si>
+  <si>
+    <t>WP_014235070.1</t>
+  </si>
+  <si>
+    <t>WP_020334998.1</t>
+  </si>
+  <si>
+    <t>ribose</t>
+  </si>
+  <si>
+    <t>WP_020334732.1</t>
+  </si>
+  <si>
+    <t>WP_020334733.1</t>
+  </si>
+  <si>
+    <t>WP_020334734.1</t>
+  </si>
+  <si>
+    <t>WP_020334735.1</t>
+  </si>
+  <si>
+    <t>maltose</t>
+  </si>
+  <si>
+    <t>WP_014234862.1</t>
+  </si>
+  <si>
+    <t>WP_020335420.1</t>
+  </si>
+  <si>
+    <t>WP_014234864.1</t>
+  </si>
+  <si>
+    <t>WP_014234865.1</t>
+  </si>
+  <si>
+    <t>vitamin B12</t>
+  </si>
+  <si>
+    <t>WP_029791807.1</t>
+  </si>
+  <si>
+    <t>WP_020333111.1</t>
+  </si>
+  <si>
+    <t>WP_020335898.1</t>
+  </si>
+  <si>
+    <t>Zinc</t>
+  </si>
+  <si>
+    <t>WP_020336309.1</t>
+  </si>
+  <si>
+    <t>WP_014231155.1</t>
+  </si>
+  <si>
+    <t>WP_020336308.1</t>
+  </si>
+  <si>
+    <t>WP_020333346.1</t>
+  </si>
+  <si>
+    <t>ptsI</t>
+  </si>
+  <si>
+    <t>WP_005382043.1</t>
+  </si>
+  <si>
+    <t>ptsH</t>
+  </si>
+  <si>
+    <t>PTS</t>
+  </si>
+  <si>
+    <t>WP_020335630.1</t>
+  </si>
+  <si>
+    <t>WP_014231102.1</t>
+  </si>
+  <si>
+    <t>crr</t>
+  </si>
+  <si>
+    <t>ptsG</t>
+  </si>
+  <si>
+    <t>glucose</t>
+  </si>
+  <si>
+    <t>n-acetyl-glucosamine</t>
+  </si>
+  <si>
+    <t>WP_014231135.1</t>
+  </si>
+  <si>
+    <t>nagE</t>
+  </si>
+  <si>
+    <t>WP_020336236.1</t>
+  </si>
+  <si>
+    <t>WP_020335632.1</t>
+  </si>
+  <si>
+    <t>malX</t>
+  </si>
+  <si>
+    <t>glucose/maltose</t>
+  </si>
+  <si>
+    <t>WP_020335853.1</t>
+  </si>
+  <si>
+    <t>sucrose</t>
+  </si>
+  <si>
+    <t>scrA</t>
+  </si>
+  <si>
+    <t>WP_014235004.1</t>
+  </si>
+  <si>
+    <t>trehalose</t>
+  </si>
+  <si>
+    <t>WP_014231038.1</t>
+  </si>
+  <si>
+    <t>treB</t>
+  </si>
+  <si>
+    <t>mannitol</t>
+  </si>
+  <si>
+    <t>mtlA</t>
+  </si>
+  <si>
+    <t>fructose</t>
+  </si>
+  <si>
+    <t>fruB</t>
+  </si>
+  <si>
+    <t>fruA</t>
+  </si>
+  <si>
+    <t>fruK</t>
+  </si>
+  <si>
+    <t>Nitrogen</t>
+  </si>
+  <si>
+    <t>ptsP</t>
+  </si>
+  <si>
+    <t>WP_020335921.1</t>
+  </si>
+  <si>
+    <t>WP_014233083.1</t>
+  </si>
+  <si>
+    <t>ptsO</t>
+  </si>
+  <si>
+    <t>WP_014233081.1</t>
+  </si>
+  <si>
+    <t>ptsN</t>
   </si>
 </sst>
 </file>
@@ -5778,8 +6271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0353629-A39F-4B64-9F1C-926C44FEE390}">
   <dimension ref="A1:E1542"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1519" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E1528" sqref="E1528"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23826,4 +24319,2323 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2278DC7C-1536-49C3-88FF-CEDD65E3ADAA}">
+  <dimension ref="A1:G136"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B138" sqref="B138"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1814</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1803</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1805</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>933</v>
+      </c>
+      <c r="F1" t="s">
+        <v>935</v>
+      </c>
+      <c r="G1" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1804</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1800</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1804</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1801</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1804</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1802</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1806</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1807</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1806</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1808</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1806</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1809</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1810</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1811</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1810</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1812</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1810</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1813</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1820</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1816</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1820</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1817</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1820</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1818</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1820</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1819</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1827</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1821</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1827</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1822</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1827</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1823</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1827</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1824</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1827</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1825</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1827</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1826</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1828</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1829</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1830</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1831</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1837</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1833</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1837</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1834</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1837</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1835</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1837</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1836</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1838</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1839</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1838</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1840</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1838</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1841</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1838</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1842</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1838</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1843</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1838</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1844</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1845</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1846</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1845</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1847</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1845</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1848</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1845</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1849</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1845</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1850</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1845</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1851</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1845</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1852</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1845</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1853</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1854</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1855</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1854</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1856</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1854</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1857</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1854</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1858</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1860</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1859</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1860</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1861</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1860</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1862</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1860</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1863</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1860</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1864</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1860</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1865</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1860</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1860</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1867</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1868</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1869</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1868</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1868</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1871</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1872</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1873</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1872</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1874</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1872</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1875</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1872</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1876</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1877</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1878</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1877</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1879</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1877</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1880</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1877</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1881</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1877</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1882</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1877</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1883</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1877</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1884</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1877</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1879</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1877</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1885</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1886</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1887</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1886</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1888</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1886</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1889</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1890</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1891</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1890</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1892</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1890</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1893</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1890</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1894</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1890</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1895</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1896</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1897</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1896</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1898</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1896</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1899</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1896</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1900</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1901</v>
+      </c>
+      <c r="D83" t="s">
+        <v>1902</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1901</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1903</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1901</v>
+      </c>
+      <c r="D85" t="s">
+        <v>1904</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1905</v>
+      </c>
+      <c r="D86" t="s">
+        <v>1906</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1905</v>
+      </c>
+      <c r="D87" t="s">
+        <v>1907</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1905</v>
+      </c>
+      <c r="D88" t="s">
+        <v>1908</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1909</v>
+      </c>
+      <c r="D89" t="s">
+        <v>1910</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1909</v>
+      </c>
+      <c r="D90" t="s">
+        <v>1911</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1909</v>
+      </c>
+      <c r="D91" t="s">
+        <v>1912</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1909</v>
+      </c>
+      <c r="D92" t="s">
+        <v>1913</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1914</v>
+      </c>
+      <c r="D93" t="s">
+        <v>1915</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1914</v>
+      </c>
+      <c r="D94" t="s">
+        <v>1916</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1914</v>
+      </c>
+      <c r="D95" t="s">
+        <v>1917</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1914</v>
+      </c>
+      <c r="D96" t="s">
+        <v>1918</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1919</v>
+      </c>
+      <c r="D97" t="s">
+        <v>1920</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1919</v>
+      </c>
+      <c r="D98" t="s">
+        <v>1921</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1919</v>
+      </c>
+      <c r="D99" t="s">
+        <v>1922</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1923</v>
+      </c>
+      <c r="D100" t="s">
+        <v>1924</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1923</v>
+      </c>
+      <c r="D101" t="s">
+        <v>1925</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1923</v>
+      </c>
+      <c r="D102" t="s">
+        <v>1926</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>1931</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1936</v>
+      </c>
+      <c r="D103" t="s">
+        <v>1927</v>
+      </c>
+      <c r="F103" t="s">
+        <v>3</v>
+      </c>
+      <c r="G103" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>1931</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1936</v>
+      </c>
+      <c r="D104" t="s">
+        <v>1929</v>
+      </c>
+      <c r="F104" t="s">
+        <v>3</v>
+      </c>
+      <c r="G104" t="s">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>1931</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1936</v>
+      </c>
+      <c r="D105" t="s">
+        <v>1932</v>
+      </c>
+      <c r="F105" t="s">
+        <v>3</v>
+      </c>
+      <c r="G105" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>1931</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1936</v>
+      </c>
+      <c r="D106" t="s">
+        <v>1933</v>
+      </c>
+      <c r="F106" t="s">
+        <v>3</v>
+      </c>
+      <c r="G106" t="s">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>1931</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1937</v>
+      </c>
+      <c r="D107" t="s">
+        <v>1927</v>
+      </c>
+      <c r="F107" t="s">
+        <v>3</v>
+      </c>
+      <c r="G107" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>1931</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1937</v>
+      </c>
+      <c r="D108" t="s">
+        <v>1929</v>
+      </c>
+      <c r="F108" t="s">
+        <v>3</v>
+      </c>
+      <c r="G108" t="s">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>1931</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1937</v>
+      </c>
+      <c r="D109" t="s">
+        <v>1938</v>
+      </c>
+      <c r="F109" t="s">
+        <v>3</v>
+      </c>
+      <c r="G109" t="s">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>1931</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1937</v>
+      </c>
+      <c r="D110" t="s">
+        <v>1927</v>
+      </c>
+      <c r="F110" t="s">
+        <v>8</v>
+      </c>
+      <c r="G110" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>1931</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1937</v>
+      </c>
+      <c r="D111" t="s">
+        <v>1929</v>
+      </c>
+      <c r="F111" t="s">
+        <v>8</v>
+      </c>
+      <c r="G111" t="s">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>1931</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1937</v>
+      </c>
+      <c r="D112" t="s">
+        <v>1940</v>
+      </c>
+      <c r="F112" t="s">
+        <v>8</v>
+      </c>
+      <c r="G112" t="s">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>1931</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1943</v>
+      </c>
+      <c r="D113" t="s">
+        <v>1927</v>
+      </c>
+      <c r="F113" t="s">
+        <v>3</v>
+      </c>
+      <c r="G113" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>1931</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1943</v>
+      </c>
+      <c r="D114" t="s">
+        <v>1929</v>
+      </c>
+      <c r="F114" t="s">
+        <v>3</v>
+      </c>
+      <c r="G114" t="s">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>1931</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1943</v>
+      </c>
+      <c r="D115" t="s">
+        <v>1941</v>
+      </c>
+      <c r="F115" t="s">
+        <v>3</v>
+      </c>
+      <c r="G115" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>1931</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1943</v>
+      </c>
+      <c r="D116" t="s">
+        <v>1933</v>
+      </c>
+      <c r="F116" t="s">
+        <v>3</v>
+      </c>
+      <c r="G116" t="s">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>1931</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1945</v>
+      </c>
+      <c r="D117" t="s">
+        <v>1927</v>
+      </c>
+      <c r="F117" t="s">
+        <v>3</v>
+      </c>
+      <c r="G117" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>1931</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1945</v>
+      </c>
+      <c r="D118" t="s">
+        <v>1929</v>
+      </c>
+      <c r="F118" t="s">
+        <v>3</v>
+      </c>
+      <c r="G118" t="s">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>1931</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1945</v>
+      </c>
+      <c r="D119" t="s">
+        <v>1944</v>
+      </c>
+      <c r="F119" t="s">
+        <v>3</v>
+      </c>
+      <c r="G119" t="s">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>1931</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1945</v>
+      </c>
+      <c r="D120" t="s">
+        <v>1927</v>
+      </c>
+      <c r="F120" t="s">
+        <v>8</v>
+      </c>
+      <c r="G120" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>1931</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1945</v>
+      </c>
+      <c r="D121" t="s">
+        <v>1929</v>
+      </c>
+      <c r="F121" t="s">
+        <v>8</v>
+      </c>
+      <c r="G121" t="s">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>1931</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1945</v>
+      </c>
+      <c r="D122" t="s">
+        <v>1947</v>
+      </c>
+      <c r="F122" t="s">
+        <v>8</v>
+      </c>
+      <c r="G122" t="s">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>1931</v>
+      </c>
+      <c r="B123" t="s">
+        <v>1948</v>
+      </c>
+      <c r="D123" t="s">
+        <v>1927</v>
+      </c>
+      <c r="F123" t="s">
+        <v>3</v>
+      </c>
+      <c r="G123" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>1931</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1948</v>
+      </c>
+      <c r="D124" t="s">
+        <v>1929</v>
+      </c>
+      <c r="F124" t="s">
+        <v>3</v>
+      </c>
+      <c r="G124" t="s">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>1931</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1948</v>
+      </c>
+      <c r="D125" t="s">
+        <v>1949</v>
+      </c>
+      <c r="F125" t="s">
+        <v>3</v>
+      </c>
+      <c r="G125" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>1931</v>
+      </c>
+      <c r="B126" t="s">
+        <v>1948</v>
+      </c>
+      <c r="D126" t="s">
+        <v>1933</v>
+      </c>
+      <c r="F126" t="s">
+        <v>3</v>
+      </c>
+      <c r="G126" t="s">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>1931</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1951</v>
+      </c>
+      <c r="D127" t="s">
+        <v>1927</v>
+      </c>
+      <c r="F127" t="s">
+        <v>3</v>
+      </c>
+      <c r="G127" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>1931</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1951</v>
+      </c>
+      <c r="D128" t="s">
+        <v>1929</v>
+      </c>
+      <c r="F128" t="s">
+        <v>3</v>
+      </c>
+      <c r="G128" t="s">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>1931</v>
+      </c>
+      <c r="B129" t="s">
+        <v>1951</v>
+      </c>
+      <c r="D129" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F129" t="s">
+        <v>3</v>
+      </c>
+      <c r="G129" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B130" t="s">
+        <v>1953</v>
+      </c>
+      <c r="D130" t="s">
+        <v>1927</v>
+      </c>
+      <c r="F130" t="s">
+        <v>3</v>
+      </c>
+      <c r="G130" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B131" t="s">
+        <v>1953</v>
+      </c>
+      <c r="D131" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F131" t="s">
+        <v>3</v>
+      </c>
+      <c r="G131" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B132" t="s">
+        <v>1953</v>
+      </c>
+      <c r="D132" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F132" t="s">
+        <v>3</v>
+      </c>
+      <c r="G132" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B133" t="s">
+        <v>1953</v>
+      </c>
+      <c r="D133" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F133" t="s">
+        <v>3</v>
+      </c>
+      <c r="G133" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B134" t="s">
+        <v>1957</v>
+      </c>
+      <c r="D134" t="s">
+        <v>1959</v>
+      </c>
+      <c r="F134" t="s">
+        <v>3</v>
+      </c>
+      <c r="G134" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B135" t="s">
+        <v>1957</v>
+      </c>
+      <c r="D135" t="s">
+        <v>1960</v>
+      </c>
+      <c r="F135" t="s">
+        <v>3</v>
+      </c>
+      <c r="G135" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B136" t="s">
+        <v>1957</v>
+      </c>
+      <c r="D136" t="s">
+        <v>1962</v>
+      </c>
+      <c r="F136" t="s">
+        <v>3</v>
+      </c>
+      <c r="G136" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/curation/curated/base_reactions.xlsx
+++ b/data/curation/curated/base_reactions.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stelmo\Documents\GitHub\pkgs\VibrioNatriegens\data\curation\curated\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8B8A86-598C-4343-8A47-06EB4F128D98}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1AC2F76-B117-405C-B938-B2D0A6D5679F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10380" activeTab="1" xr2:uid="{6E112BAF-17F1-4FC4-AAE1-C0D27B9CAB85}"/>
   </bookViews>
   <sheets>
     <sheet name="metabolism" sheetId="1" r:id="rId1"/>
     <sheet name="transporters" sheetId="2" r:id="rId2"/>
+    <sheet name="transporters_not_included" sheetId="5" r:id="rId3"/>
+    <sheet name="aminoacids" sheetId="4" r:id="rId4"/>
+    <sheet name="exchanges" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4016" uniqueCount="1964">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4907" uniqueCount="2306">
   <si>
     <t>Protein</t>
   </si>
@@ -5284,9 +5287,6 @@
     <t>WP_014233193.1</t>
   </si>
   <si>
-    <t>R04241</t>
-  </si>
-  <si>
     <t>R04286</t>
   </si>
   <si>
@@ -5440,9 +5440,6 @@
     <t>Metabolite</t>
   </si>
   <si>
-    <t>Tungsten</t>
-  </si>
-  <si>
     <t>KeggID</t>
   </si>
   <si>
@@ -5539,12 +5536,6 @@
     <t>WP_020333277.1</t>
   </si>
   <si>
-    <t>spermidine/putrescine</t>
-  </si>
-  <si>
-    <t>glycine betaine/proline</t>
-  </si>
-  <si>
     <t>WP_020336361.1</t>
   </si>
   <si>
@@ -5608,9 +5599,6 @@
     <t>WP_020336408.1</t>
   </si>
   <si>
-    <t>L-amino acid general</t>
-  </si>
-  <si>
     <t>WP_020336407.1</t>
   </si>
   <si>
@@ -5659,9 +5647,6 @@
     <t>WP_014231302.1</t>
   </si>
   <si>
-    <t>Branched amino acid</t>
-  </si>
-  <si>
     <t>WP_020333763.1</t>
   </si>
   <si>
@@ -5731,9 +5716,6 @@
     <t>WP_014232643.1</t>
   </si>
   <si>
-    <t>glucose/mannose</t>
-  </si>
-  <si>
     <t>WP_020336136.1</t>
   </si>
   <si>
@@ -5857,9 +5839,6 @@
     <t>malX</t>
   </si>
   <si>
-    <t>glucose/maltose</t>
-  </si>
-  <si>
     <t>WP_020335853.1</t>
   </si>
   <si>
@@ -5918,19 +5897,1074 @@
   </si>
   <si>
     <t>ptsN</t>
+  </si>
+  <si>
+    <t>ammonium</t>
+  </si>
+  <si>
+    <t>WP_014232922.1</t>
+  </si>
+  <si>
+    <t>WP_020333273.1</t>
+  </si>
+  <si>
+    <t>amt</t>
+  </si>
+  <si>
+    <t>formate</t>
+  </si>
+  <si>
+    <t>WP_014231503.1</t>
+  </si>
+  <si>
+    <t>WP_020334914.1</t>
+  </si>
+  <si>
+    <t>WP_014233084.1</t>
+  </si>
+  <si>
+    <t>magnesium</t>
+  </si>
+  <si>
+    <t>Permease</t>
+  </si>
+  <si>
+    <t>focA</t>
+  </si>
+  <si>
+    <t>mgtE</t>
+  </si>
+  <si>
+    <t>WP_014233755.1</t>
+  </si>
+  <si>
+    <t>WP_014232829.1</t>
+  </si>
+  <si>
+    <t>zinc</t>
+  </si>
+  <si>
+    <t>zntB</t>
+  </si>
+  <si>
+    <t>WP_020333804.1</t>
+  </si>
+  <si>
+    <t>NarK</t>
+  </si>
+  <si>
+    <t>WP_014230764.1</t>
+  </si>
+  <si>
+    <t>PiT</t>
+  </si>
+  <si>
+    <t>WP_014234994.1</t>
+  </si>
+  <si>
+    <t>sstT</t>
+  </si>
+  <si>
+    <t>tyrosine</t>
+  </si>
+  <si>
+    <t>tyrP</t>
+  </si>
+  <si>
+    <t>WP_014231754.1</t>
+  </si>
+  <si>
+    <t>WP_014234666.1</t>
+  </si>
+  <si>
+    <t>tryptophan</t>
+  </si>
+  <si>
+    <t>mtr</t>
+  </si>
+  <si>
+    <t>WP_020333498.1</t>
+  </si>
+  <si>
+    <t>serine</t>
+  </si>
+  <si>
+    <t>sdaC</t>
+  </si>
+  <si>
+    <t>WP_014232351.1</t>
+  </si>
+  <si>
+    <t>WP_020334957.1</t>
+  </si>
+  <si>
+    <t>WP_020335534.1</t>
+  </si>
+  <si>
+    <t>WP_020333247.1</t>
+  </si>
+  <si>
+    <t>WP_014234588.1</t>
+  </si>
+  <si>
+    <t>WP_014234857.1</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>butA</t>
+  </si>
+  <si>
+    <t>Symport</t>
+  </si>
+  <si>
+    <t>Na/Pi</t>
+  </si>
+  <si>
+    <t>WP_014230861.1</t>
+  </si>
+  <si>
+    <t>nptA</t>
+  </si>
+  <si>
+    <t>Antiport</t>
+  </si>
+  <si>
+    <t>aspartate/alanine</t>
+  </si>
+  <si>
+    <t>WP_014232517.1</t>
+  </si>
+  <si>
+    <t>WP_020335661.1</t>
+  </si>
+  <si>
+    <t>WP_014231566.1</t>
+  </si>
+  <si>
+    <t>ybjL</t>
+  </si>
+  <si>
+    <t>WP_020333652.1</t>
+  </si>
+  <si>
+    <t>WP_020335660.1</t>
+  </si>
+  <si>
+    <t>WP_020334836.1</t>
+  </si>
+  <si>
+    <t>xylE</t>
+  </si>
+  <si>
+    <t>Xylose/H</t>
+  </si>
+  <si>
+    <t>WP_020336445.1</t>
+  </si>
+  <si>
+    <t>Na/pantothenate</t>
+  </si>
+  <si>
+    <t>WP_020333170.1</t>
+  </si>
+  <si>
+    <t>Na/proline</t>
+  </si>
+  <si>
+    <t>WP_020333510.1</t>
+  </si>
+  <si>
+    <t>WP_020335025.1</t>
+  </si>
+  <si>
+    <t>WP_020333858.1</t>
+  </si>
+  <si>
+    <t>Na/acetate</t>
+  </si>
+  <si>
+    <t>WP_014233251.1</t>
+  </si>
+  <si>
+    <t>Na/alanine</t>
+  </si>
+  <si>
+    <t>WP_020336373.1</t>
+  </si>
+  <si>
+    <t>WP_020333658.1</t>
+  </si>
+  <si>
+    <t>WP_014230840.1</t>
+  </si>
+  <si>
+    <t>WP_231113068.1</t>
+  </si>
+  <si>
+    <t>Na/glycine</t>
+  </si>
+  <si>
+    <t>Na/glutamate</t>
+  </si>
+  <si>
+    <t>WP_024372619.1</t>
+  </si>
+  <si>
+    <t>xanthine</t>
+  </si>
+  <si>
+    <t>WP_020334077.1</t>
+  </si>
+  <si>
+    <t>H/benzoate</t>
+  </si>
+  <si>
+    <t>WP_020332917.1</t>
+  </si>
+  <si>
+    <t>H/gluconate</t>
+  </si>
+  <si>
+    <t>WP_020333928.1</t>
+  </si>
+  <si>
+    <t>WP_014230461.1</t>
+  </si>
+  <si>
+    <t>WP_014233495.1</t>
+  </si>
+  <si>
+    <t>WP_020333747.1</t>
+  </si>
+  <si>
+    <t>WP_014233074.1</t>
+  </si>
+  <si>
+    <t>WP_020335996.1</t>
+  </si>
+  <si>
+    <t>Na/H</t>
+  </si>
+  <si>
+    <t>WP_020333000.1</t>
+  </si>
+  <si>
+    <t>WP_014232509.1</t>
+  </si>
+  <si>
+    <t>WP_014232558.1</t>
+  </si>
+  <si>
+    <t>WP_020334217.1</t>
+  </si>
+  <si>
+    <t>WP_020333874.1</t>
+  </si>
+  <si>
+    <t>WP_020333880.1</t>
+  </si>
+  <si>
+    <t>WP_024372849.1</t>
+  </si>
+  <si>
+    <t>WP_076633467.1</t>
+  </si>
+  <si>
+    <t>WP_020336281.1</t>
+  </si>
+  <si>
+    <t>K/H</t>
+  </si>
+  <si>
+    <t>WP_020336216.1</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>WP_031779262.1</t>
+  </si>
+  <si>
+    <t>WP_020336035.1</t>
+  </si>
+  <si>
+    <t>WP_020336034.1</t>
+  </si>
+  <si>
+    <t>WP_020336033.1</t>
+  </si>
+  <si>
+    <t>WP_020336032.1</t>
+  </si>
+  <si>
+    <t>WP_020336031.1</t>
+  </si>
+  <si>
+    <t>oxalate/formate</t>
+  </si>
+  <si>
+    <t>WP_014234080.1</t>
+  </si>
+  <si>
+    <t>KeGG</t>
+  </si>
+  <si>
+    <t>C00025</t>
+  </si>
+  <si>
+    <t>C00302</t>
+  </si>
+  <si>
+    <t>C00032</t>
+  </si>
+  <si>
+    <t>C00026</t>
+  </si>
+  <si>
+    <t>C01419</t>
+  </si>
+  <si>
+    <t>C02353</t>
+  </si>
+  <si>
+    <t>C00130</t>
+  </si>
+  <si>
+    <t>C06196</t>
+  </si>
+  <si>
+    <t>C02989</t>
+  </si>
+  <si>
+    <t>C00446</t>
+  </si>
+  <si>
+    <t>C00334</t>
+  </si>
+  <si>
+    <t>C00407</t>
+  </si>
+  <si>
+    <t>C00079</t>
+  </si>
+  <si>
+    <t>C00116</t>
+  </si>
+  <si>
+    <t>C14818</t>
+  </si>
+  <si>
+    <t>C00275</t>
+  </si>
+  <si>
+    <t>C00320</t>
+  </si>
+  <si>
+    <t>C00078</t>
+  </si>
+  <si>
+    <t>C00073</t>
+  </si>
+  <si>
+    <t>C00047</t>
+  </si>
+  <si>
+    <t>C01530</t>
+  </si>
+  <si>
+    <t>C00147</t>
+  </si>
+  <si>
+    <t>C00262</t>
+  </si>
+  <si>
+    <t>C00067</t>
+  </si>
+  <si>
+    <t>C00148</t>
+  </si>
+  <si>
+    <t>C00463</t>
+  </si>
+  <si>
+    <t>C00152</t>
+  </si>
+  <si>
+    <t>C01181</t>
+  </si>
+  <si>
+    <t>C12621</t>
+  </si>
+  <si>
+    <t>C00033</t>
+  </si>
+  <si>
+    <t>C00037</t>
+  </si>
+  <si>
+    <t>C00315</t>
+  </si>
+  <si>
+    <t>C00121</t>
+  </si>
+  <si>
+    <t>C00212</t>
+  </si>
+  <si>
+    <t>C00312</t>
+  </si>
+  <si>
+    <t>C00360</t>
+  </si>
+  <si>
+    <t>C00132</t>
+  </si>
+  <si>
+    <t>C00059</t>
+  </si>
+  <si>
+    <t>C00177</t>
+  </si>
+  <si>
+    <t>C05123</t>
+  </si>
+  <si>
+    <t>C00133</t>
+  </si>
+  <si>
+    <t>C00366</t>
+  </si>
+  <si>
+    <t>C00188</t>
+  </si>
+  <si>
+    <t>C00064</t>
+  </si>
+  <si>
+    <t>C00362</t>
+  </si>
+  <si>
+    <t>C05822</t>
+  </si>
+  <si>
+    <t>C00475</t>
+  </si>
+  <si>
+    <t>C00092</t>
+  </si>
+  <si>
+    <t>C00122</t>
+  </si>
+  <si>
+    <t>C00380</t>
+  </si>
+  <si>
+    <t>C00740</t>
+  </si>
+  <si>
+    <t>C00864</t>
+  </si>
+  <si>
+    <t>C00088</t>
+  </si>
+  <si>
+    <t>C00164</t>
+  </si>
+  <si>
+    <t>C00365</t>
+  </si>
+  <si>
+    <t>C00027</t>
+  </si>
+  <si>
+    <t>C00534</t>
+  </si>
+  <si>
+    <t>C01368</t>
+  </si>
+  <si>
+    <t>C00507</t>
+  </si>
+  <si>
+    <t>C00144</t>
+  </si>
+  <si>
+    <t>C00160</t>
+  </si>
+  <si>
+    <t>C00526</t>
+  </si>
+  <si>
+    <t>C00044</t>
+  </si>
+  <si>
+    <t>C01755</t>
+  </si>
+  <si>
+    <t>C00387</t>
+  </si>
+  <si>
+    <t>C00256</t>
+  </si>
+  <si>
+    <t>C02354</t>
+  </si>
+  <si>
+    <t>C00093</t>
+  </si>
+  <si>
+    <t>C00299</t>
+  </si>
+  <si>
+    <t>C00094</t>
+  </si>
+  <si>
+    <t>C00330</t>
+  </si>
+  <si>
+    <t>C01762</t>
+  </si>
+  <si>
+    <t>C00249</t>
+  </si>
+  <si>
+    <t>C00158</t>
+  </si>
+  <si>
+    <t>C00253</t>
+  </si>
+  <si>
+    <t>C05629</t>
+  </si>
+  <si>
+    <t>C06194</t>
+  </si>
+  <si>
+    <t>C03089</t>
+  </si>
+  <si>
+    <t>C00049</t>
+  </si>
+  <si>
+    <t>C00058</t>
+  </si>
+  <si>
+    <t>C00061</t>
+  </si>
+  <si>
+    <t>C00680</t>
+  </si>
+  <si>
+    <t>C00186</t>
+  </si>
+  <si>
+    <t>C00559</t>
+  </si>
+  <si>
+    <t>C00263</t>
+  </si>
+  <si>
+    <t>C00062</t>
+  </si>
+  <si>
+    <t>C00208</t>
+  </si>
+  <si>
+    <t>C00853</t>
+  </si>
+  <si>
+    <t>C00052</t>
+  </si>
+  <si>
+    <t>C00020</t>
+  </si>
+  <si>
+    <t>C00086</t>
+  </si>
+  <si>
+    <t>C00352</t>
+  </si>
+  <si>
+    <t>C00051</t>
+  </si>
+  <si>
+    <t>C00194</t>
+  </si>
+  <si>
+    <t>C00577</t>
+  </si>
+  <si>
+    <t>C00041</t>
+  </si>
+  <si>
+    <t>C00140</t>
+  </si>
+  <si>
+    <t>C00082</t>
+  </si>
+  <si>
+    <t>C00655</t>
+  </si>
+  <si>
+    <t>C00242</t>
+  </si>
+  <si>
+    <t>C00103</t>
+  </si>
+  <si>
+    <t>C00007</t>
+  </si>
+  <si>
+    <t>C00314</t>
+  </si>
+  <si>
+    <t>C00294</t>
+  </si>
+  <si>
+    <t>C00175</t>
+  </si>
+  <si>
+    <t>C00097</t>
+  </si>
+  <si>
+    <t>C00009</t>
+  </si>
+  <si>
+    <t>C00055</t>
+  </si>
+  <si>
+    <t>C00204</t>
+  </si>
+  <si>
+    <t>C11457</t>
+  </si>
+  <si>
+    <t>C00250</t>
+  </si>
+  <si>
+    <t>C00043</t>
+  </si>
+  <si>
+    <t>C00106</t>
+  </si>
+  <si>
+    <t>C02355</t>
+  </si>
+  <si>
+    <t>C00385</t>
+  </si>
+  <si>
+    <t>C00084</t>
+  </si>
+  <si>
+    <t>C00364</t>
+  </si>
+  <si>
+    <t>C00881</t>
+  </si>
+  <si>
+    <t>C00114</t>
+  </si>
+  <si>
+    <t>C00014</t>
+  </si>
+  <si>
+    <t>C00719</t>
+  </si>
+  <si>
+    <t>C00105</t>
+  </si>
+  <si>
+    <t>C14819</t>
+  </si>
+  <si>
+    <t>C06193</t>
+  </si>
+  <si>
+    <t>C00077</t>
+  </si>
+  <si>
+    <t>C00704</t>
+  </si>
+  <si>
+    <t>C00099</t>
+  </si>
+  <si>
+    <t>C06232</t>
+  </si>
+  <si>
+    <t>C00245</t>
+  </si>
+  <si>
+    <t>C00089</t>
+  </si>
+  <si>
+    <t>C00283</t>
+  </si>
+  <si>
+    <t>C00239</t>
+  </si>
+  <si>
+    <t>C00469</t>
+  </si>
+  <si>
+    <t>C00120</t>
+  </si>
+  <si>
+    <t>C00134</t>
+  </si>
+  <si>
+    <t>C00993</t>
+  </si>
+  <si>
+    <t>C00183</t>
+  </si>
+  <si>
+    <t>C00295</t>
+  </si>
+  <si>
+    <t>C00258</t>
+  </si>
+  <si>
+    <t>C00065</t>
+  </si>
+  <si>
+    <t>C00244</t>
+  </si>
+  <si>
+    <t>C00455</t>
+  </si>
+  <si>
+    <t>C06423</t>
+  </si>
+  <si>
+    <t>C00493</t>
+  </si>
+  <si>
+    <t>C05512</t>
+  </si>
+  <si>
+    <t>C00035</t>
+  </si>
+  <si>
+    <t>C01005</t>
+  </si>
+  <si>
+    <t>C00392</t>
+  </si>
+  <si>
+    <t>C00243</t>
+  </si>
+  <si>
+    <t>C00029</t>
+  </si>
+  <si>
+    <t>C00282</t>
+  </si>
+  <si>
+    <t>C00031</t>
+  </si>
+  <si>
+    <t>C01367</t>
+  </si>
+  <si>
+    <t>C00189</t>
+  </si>
+  <si>
+    <t>C00257</t>
+  </si>
+  <si>
+    <t>C00178</t>
+  </si>
+  <si>
+    <t>C00329</t>
+  </si>
+  <si>
+    <t>C00095</t>
+  </si>
+  <si>
+    <t>C00042</t>
+  </si>
+  <si>
+    <t>C00011</t>
+  </si>
+  <si>
+    <t>C00080</t>
+  </si>
+  <si>
+    <t>C00984</t>
+  </si>
+  <si>
+    <t>C00124</t>
+  </si>
+  <si>
+    <t>C00016</t>
+  </si>
+  <si>
+    <t>C00214</t>
+  </si>
+  <si>
+    <t>C00179</t>
+  </si>
+  <si>
+    <t>C00149</t>
+  </si>
+  <si>
+    <t>C00022</t>
+  </si>
+  <si>
+    <t>C00167</t>
+  </si>
+  <si>
+    <t>C05345</t>
+  </si>
+  <si>
+    <t>C05697</t>
+  </si>
+  <si>
+    <t>C00135</t>
+  </si>
+  <si>
+    <t>C00979</t>
+  </si>
+  <si>
+    <t>C00123</t>
+  </si>
+  <si>
+    <t>C00001</t>
+  </si>
+  <si>
+    <t>spermidine</t>
+  </si>
+  <si>
+    <t>glycine betaine</t>
+  </si>
+  <si>
+    <t>proline</t>
+  </si>
+  <si>
+    <t>ornithine</t>
+  </si>
+  <si>
+    <t>mannose</t>
+  </si>
+  <si>
+    <t>nitrite</t>
+  </si>
+  <si>
+    <t>nitrate</t>
+  </si>
+  <si>
+    <t>threonine</t>
+  </si>
+  <si>
+    <t>betaine</t>
+  </si>
+  <si>
+    <t>carnitine</t>
+  </si>
+  <si>
+    <t>AminoAcid</t>
+  </si>
+  <si>
+    <t>BranchedAminoAcid</t>
+  </si>
+  <si>
+    <t>C00378</t>
+  </si>
+  <si>
+    <t>C00697</t>
+  </si>
+  <si>
+    <t>C01083</t>
+  </si>
+  <si>
+    <t>C20679</t>
+  </si>
+  <si>
+    <t>Tungstate</t>
+  </si>
+  <si>
+    <t>C22040</t>
+  </si>
+  <si>
+    <t>C05776</t>
+  </si>
+  <si>
+    <t>C00038</t>
+  </si>
+  <si>
+    <t>C00855</t>
+  </si>
+  <si>
+    <t>C00159</t>
+  </si>
+  <si>
+    <t>C00259</t>
+  </si>
+  <si>
+    <t>D-xylose</t>
+  </si>
+  <si>
+    <t>C00181</t>
+  </si>
+  <si>
+    <t>C01330/C00080</t>
+  </si>
+  <si>
+    <t>C00238/C00080</t>
+  </si>
+  <si>
+    <t>C00080/C00180</t>
+  </si>
+  <si>
+    <t>C00080/C00257</t>
+  </si>
+  <si>
+    <t>Na/calcium</t>
+  </si>
+  <si>
+    <t>C01330/C00076</t>
+  </si>
+  <si>
+    <t>C00305</t>
+  </si>
+  <si>
+    <t>C00318</t>
+  </si>
+  <si>
+    <t>C01330/C00009</t>
+  </si>
+  <si>
+    <t>C00049/C00041</t>
+  </si>
+  <si>
+    <t>C00181/C00080</t>
+  </si>
+  <si>
+    <t>C01330/C00864</t>
+  </si>
+  <si>
+    <t>C01330/C00148</t>
+  </si>
+  <si>
+    <t>C01330/C00033</t>
+  </si>
+  <si>
+    <t>C01330/C00041</t>
+  </si>
+  <si>
+    <t>C01330/C00037</t>
+  </si>
+  <si>
+    <t>C01330/C00025</t>
+  </si>
+  <si>
+    <t>C00062/C00077</t>
+  </si>
+  <si>
+    <t>C00209/C00058</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>L-alanine</t>
+  </si>
+  <si>
+    <t>L-serine</t>
+  </si>
+  <si>
+    <t>L-phenylalanine</t>
+  </si>
+  <si>
+    <t>L-tyrosine</t>
+  </si>
+  <si>
+    <t>L-glutamate</t>
+  </si>
+  <si>
+    <t>Glycine</t>
+  </si>
+  <si>
+    <t>L-aspartate</t>
+  </si>
+  <si>
+    <t>L-lysine</t>
+  </si>
+  <si>
+    <t>L-tryptophan</t>
+  </si>
+  <si>
+    <t>L-cysteine</t>
+  </si>
+  <si>
+    <t>L-leucine</t>
+  </si>
+  <si>
+    <t>L-histidine</t>
+  </si>
+  <si>
+    <t>L-asparagine</t>
+  </si>
+  <si>
+    <t>L-threonine</t>
+  </si>
+  <si>
+    <t>L-valine</t>
+  </si>
+  <si>
+    <t>L-methionine</t>
+  </si>
+  <si>
+    <t>L-isoleucine</t>
+  </si>
+  <si>
+    <t>L-arginine</t>
+  </si>
+  <si>
+    <t>L-proline</t>
+  </si>
+  <si>
+    <t>L-glutamine</t>
+  </si>
+  <si>
+    <t>C00288</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFCE9178"/>
+      <name val="Fira Code"/>
     </font>
   </fonts>
   <fills count="2">
@@ -5953,8 +6987,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6269,16 +7306,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0353629-A39F-4B64-9F1C-926C44FEE390}">
-  <dimension ref="A1:E1542"/>
+  <dimension ref="A1:E1541"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView topLeftCell="A1528" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C1491" sqref="C1491"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -23847,7 +24885,7 @@
         <v>1752</v>
       </c>
       <c r="B1500" t="s">
-        <v>226</v>
+        <v>1753</v>
       </c>
       <c r="C1500">
         <v>1</v>
@@ -23855,10 +24893,10 @@
     </row>
     <row r="1501" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1501" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="B1501" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="C1501">
         <v>1</v>
@@ -23866,24 +24904,24 @@
     </row>
     <row r="1502" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1502" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B1502" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="C1502">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1503" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1503" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="B1503" t="s">
-        <v>1758</v>
+        <v>1574</v>
       </c>
       <c r="C1503">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1504" spans="1:4" x14ac:dyDescent="0.3">
@@ -23891,21 +24929,21 @@
         <v>1759</v>
       </c>
       <c r="B1504" t="s">
-        <v>1574</v>
+        <v>1760</v>
       </c>
       <c r="C1504">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1505" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1505" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="B1505" t="s">
-        <v>1761</v>
+        <v>1753</v>
       </c>
       <c r="C1505">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1506" spans="1:3" x14ac:dyDescent="0.3">
@@ -23913,7 +24951,7 @@
         <v>1762</v>
       </c>
       <c r="B1506" t="s">
-        <v>1754</v>
+        <v>1763</v>
       </c>
       <c r="C1506">
         <v>1</v>
@@ -23921,32 +24959,32 @@
     </row>
     <row r="1507" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1507" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="B1507" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="C1507">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1508" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1508" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="B1508" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="C1508">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1509" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1509" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="B1509" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="C1509">
         <v>1</v>
@@ -23954,13 +24992,13 @@
     </row>
     <row r="1510" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1510" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="B1510" t="s">
-        <v>1770</v>
+        <v>974</v>
       </c>
       <c r="C1510">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1511" spans="1:3" x14ac:dyDescent="0.3">
@@ -23968,10 +25006,10 @@
         <v>1771</v>
       </c>
       <c r="B1511" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="C1511">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1512" spans="1:3" x14ac:dyDescent="0.3">
@@ -23979,10 +25017,10 @@
         <v>1772</v>
       </c>
       <c r="B1512" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C1512">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1513" spans="1:3" x14ac:dyDescent="0.3">
@@ -23990,10 +25028,10 @@
         <v>1773</v>
       </c>
       <c r="B1513" t="s">
-        <v>974</v>
+        <v>1263</v>
       </c>
       <c r="C1513">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1514" spans="1:3" x14ac:dyDescent="0.3">
@@ -24012,7 +25050,7 @@
         <v>1775</v>
       </c>
       <c r="B1515" t="s">
-        <v>1263</v>
+        <v>1776</v>
       </c>
       <c r="C1515">
         <v>1</v>
@@ -24020,10 +25058,10 @@
     </row>
     <row r="1516" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1516" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B1516" t="s">
         <v>1776</v>
-      </c>
-      <c r="B1516" t="s">
-        <v>1777</v>
       </c>
       <c r="C1516">
         <v>1</v>
@@ -24034,18 +25072,18 @@
         <v>1778</v>
       </c>
       <c r="B1517" t="s">
-        <v>1777</v>
+        <v>1779</v>
       </c>
       <c r="C1517">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1518" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1518" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="B1518" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="C1518">
         <v>2</v>
@@ -24053,10 +25091,10 @@
     </row>
     <row r="1519" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1519" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="B1519" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="C1519">
         <v>2</v>
@@ -24064,10 +25102,10 @@
     </row>
     <row r="1520" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1520" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="B1520" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="C1520">
         <v>2</v>
@@ -24075,10 +25113,10 @@
     </row>
     <row r="1521" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1521" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B1521" t="s">
         <v>1785</v>
-      </c>
-      <c r="B1521" t="s">
-        <v>1786</v>
       </c>
       <c r="C1521">
         <v>2</v>
@@ -24089,10 +25127,10 @@
         <v>1787</v>
       </c>
       <c r="B1522" t="s">
-        <v>1786</v>
+        <v>1263</v>
       </c>
       <c r="C1522">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1523" spans="1:3" x14ac:dyDescent="0.3">
@@ -24111,7 +25149,7 @@
         <v>1789</v>
       </c>
       <c r="B1524" t="s">
-        <v>1263</v>
+        <v>1790</v>
       </c>
       <c r="C1524">
         <v>1</v>
@@ -24119,10 +25157,10 @@
     </row>
     <row r="1525" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1525" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="B1525" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="C1525">
         <v>1</v>
@@ -24130,10 +25168,10 @@
     </row>
     <row r="1526" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1526" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="B1526" t="s">
-        <v>1793</v>
+        <v>1219</v>
       </c>
       <c r="C1526">
         <v>1</v>
@@ -24141,10 +25179,10 @@
     </row>
     <row r="1527" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1527" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="B1527" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="C1527">
         <v>1</v>
@@ -24155,18 +25193,18 @@
         <v>1794</v>
       </c>
       <c r="B1528" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="C1528">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1529" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1529" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="B1529" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C1529">
         <v>4</v>
@@ -24174,10 +25212,10 @@
     </row>
     <row r="1530" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1530" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="B1530" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C1530">
         <v>4</v>
@@ -24185,10 +25223,10 @@
     </row>
     <row r="1531" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1531" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="B1531" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C1531">
         <v>4</v>
@@ -24196,10 +25234,10 @@
     </row>
     <row r="1532" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1532" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="B1532" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="C1532">
         <v>4</v>
@@ -24210,10 +25248,10 @@
         <v>1795</v>
       </c>
       <c r="B1533" t="s">
-        <v>1213</v>
+        <v>1226</v>
       </c>
       <c r="C1533">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1534" spans="1:3" x14ac:dyDescent="0.3">
@@ -24221,18 +25259,18 @@
         <v>1796</v>
       </c>
       <c r="B1534" t="s">
-        <v>1226</v>
+        <v>1219</v>
       </c>
       <c r="C1534">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1535" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1535" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="B1535" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="C1535">
         <v>2</v>
@@ -24243,18 +25281,18 @@
         <v>1797</v>
       </c>
       <c r="B1536" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="C1536">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1537" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1537" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="B1537" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C1537">
         <v>4</v>
@@ -24262,10 +25300,10 @@
     </row>
     <row r="1538" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1538" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="B1538" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C1538">
         <v>4</v>
@@ -24273,10 +25311,10 @@
     </row>
     <row r="1539" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1539" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="B1539" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C1539">
         <v>4</v>
@@ -24284,10 +25322,10 @@
     </row>
     <row r="1540" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1540" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="B1540" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="C1540">
         <v>4</v>
@@ -24298,20 +25336,9 @@
         <v>1798</v>
       </c>
       <c r="B1541" t="s">
-        <v>1213</v>
+        <v>1226</v>
       </c>
       <c r="C1541">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="1542" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1542" t="s">
-        <v>1799</v>
-      </c>
-      <c r="B1542" t="s">
-        <v>1226</v>
-      </c>
-      <c r="C1542">
         <v>1</v>
       </c>
     </row>
@@ -24323,29 +25350,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2278DC7C-1536-49C3-88FF-CEDD65E3ADAA}">
-  <dimension ref="A1:G136"/>
+  <dimension ref="A1:G203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B138" sqref="B138"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="C181" sqref="C181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
     <col min="4" max="4" width="18.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1814</v>
+        <v>1812</v>
       </c>
       <c r="B1" t="s">
+        <v>1802</v>
+      </c>
+      <c r="C1" t="s">
         <v>1803</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1805</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -24362,13 +25390,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B2" t="s">
         <v>1804</v>
       </c>
+      <c r="C2" t="s">
+        <v>2252</v>
+      </c>
       <c r="D2" t="s">
-        <v>1800</v>
+        <v>1805</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -24379,13 +25410,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B3" t="s">
         <v>1804</v>
       </c>
+      <c r="C3" t="s">
+        <v>2252</v>
+      </c>
       <c r="D3" t="s">
-        <v>1801</v>
+        <v>1806</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -24396,13 +25430,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B4" t="s">
         <v>1804</v>
       </c>
+      <c r="C4" t="s">
+        <v>2252</v>
+      </c>
       <c r="D4" t="s">
-        <v>1802</v>
+        <v>1807</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -24413,13 +25450,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B5" t="s">
-        <v>1806</v>
+        <v>1808</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2193</v>
       </c>
       <c r="D5" t="s">
-        <v>1807</v>
+        <v>1809</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -24430,13 +25470,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B6" t="s">
-        <v>1806</v>
+        <v>1808</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2193</v>
       </c>
       <c r="D6" t="s">
-        <v>1808</v>
+        <v>1810</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -24447,13 +25490,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B7" t="s">
-        <v>1806</v>
+        <v>1808</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2193</v>
       </c>
       <c r="D7" t="s">
-        <v>1809</v>
+        <v>1811</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -24464,16 +25510,19 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B8" t="s">
-        <v>1810</v>
+        <v>1818</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2192</v>
       </c>
       <c r="D8" t="s">
-        <v>1811</v>
+        <v>1814</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" t="s">
         <v>3</v>
@@ -24481,16 +25530,19 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1818</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2192</v>
+      </c>
+      <c r="D9" t="s">
         <v>1815</v>
       </c>
-      <c r="B9" t="s">
-        <v>1810</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1812</v>
-      </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" t="s">
         <v>3</v>
@@ -24498,13 +25550,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B10" t="s">
-        <v>1810</v>
+        <v>1818</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2192</v>
       </c>
       <c r="D10" t="s">
-        <v>1813</v>
+        <v>1816</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -24515,13 +25570,16 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B11" t="s">
-        <v>1820</v>
+        <v>1818</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2192</v>
       </c>
       <c r="D11" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -24532,13 +25590,16 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B12" t="s">
-        <v>1820</v>
+        <v>1825</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2187</v>
       </c>
       <c r="D12" t="s">
-        <v>1817</v>
+        <v>1819</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -24549,13 +25610,16 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B13" t="s">
+        <v>1825</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2187</v>
+      </c>
+      <c r="D13" t="s">
         <v>1820</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1818</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -24566,13 +25630,16 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B14" t="s">
-        <v>1820</v>
+        <v>1825</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2187</v>
       </c>
       <c r="D14" t="s">
-        <v>1819</v>
+        <v>1821</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -24583,115 +25650,136 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B15" t="s">
-        <v>1827</v>
+        <v>1825</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2187</v>
       </c>
       <c r="D15" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B16" t="s">
-        <v>1827</v>
+        <v>1825</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2187</v>
       </c>
       <c r="D16" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B17" t="s">
-        <v>1827</v>
+        <v>1825</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2187</v>
       </c>
       <c r="D17" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B18" t="s">
-        <v>1827</v>
+        <v>1830</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2199</v>
       </c>
       <c r="D18" t="s">
-        <v>1824</v>
+        <v>1826</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B19" t="s">
+        <v>1830</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2199</v>
+      </c>
+      <c r="D19" t="s">
         <v>1827</v>
       </c>
-      <c r="D19" t="s">
-        <v>1825</v>
-      </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B20" t="s">
-        <v>1827</v>
+        <v>1830</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2199</v>
       </c>
       <c r="D20" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B21" t="s">
-        <v>1832</v>
+        <v>1830</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2199</v>
       </c>
       <c r="D21" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -24702,13 +25790,16 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B22" t="s">
-        <v>1832</v>
+        <v>2240</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2096</v>
       </c>
       <c r="D22" t="s">
-        <v>1829</v>
+        <v>1831</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -24719,13 +25810,16 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B23" t="s">
+        <v>2240</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2096</v>
+      </c>
+      <c r="D23" t="s">
         <v>1832</v>
-      </c>
-      <c r="D23" t="s">
-        <v>1830</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -24736,13 +25830,16 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B24" t="s">
-        <v>1832</v>
+        <v>2240</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2096</v>
       </c>
       <c r="D24" t="s">
-        <v>1831</v>
+        <v>1833</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -24753,13 +25850,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B25" t="s">
-        <v>1837</v>
+        <v>2240</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2096</v>
       </c>
       <c r="D25" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -24770,13 +25870,16 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B26" t="s">
-        <v>1837</v>
+        <v>1830</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2199</v>
       </c>
       <c r="D26" t="s">
-        <v>1834</v>
+        <v>1831</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -24787,13 +25890,16 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B27" t="s">
-        <v>1837</v>
+        <v>1830</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2199</v>
       </c>
       <c r="D27" t="s">
-        <v>1835</v>
+        <v>1832</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -24804,13 +25910,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B28" t="s">
-        <v>1837</v>
+        <v>1830</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2199</v>
       </c>
       <c r="D28" t="s">
-        <v>1836</v>
+        <v>1833</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -24821,13 +25930,16 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B29" t="s">
-        <v>1838</v>
+        <v>1830</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2199</v>
       </c>
       <c r="D29" t="s">
-        <v>1839</v>
+        <v>1834</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -24838,13 +25950,16 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B30" t="s">
-        <v>1838</v>
+        <v>2241</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2185</v>
       </c>
       <c r="D30" t="s">
-        <v>1840</v>
+        <v>1835</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -24855,13 +25970,16 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B31" t="s">
-        <v>1838</v>
+        <v>2241</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2185</v>
       </c>
       <c r="D31" t="s">
-        <v>1841</v>
+        <v>1836</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -24872,30 +25990,36 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B32" t="s">
-        <v>1838</v>
+        <v>2241</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2185</v>
       </c>
       <c r="D32" t="s">
-        <v>1842</v>
+        <v>1837</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B33" t="s">
+        <v>2241</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2185</v>
+      </c>
+      <c r="D33" t="s">
         <v>1838</v>
-      </c>
-      <c r="D33" t="s">
-        <v>1843</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -24906,13 +26030,16 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B34" t="s">
-        <v>1838</v>
+        <v>2241</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2185</v>
       </c>
       <c r="D34" t="s">
-        <v>1844</v>
+        <v>1839</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -24923,30 +26050,36 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B35" t="s">
-        <v>1845</v>
+        <v>2241</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2185</v>
       </c>
       <c r="D35" t="s">
-        <v>1846</v>
+        <v>1840</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B36" t="s">
-        <v>1845</v>
+        <v>2242</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2089</v>
       </c>
       <c r="D36" t="s">
-        <v>1847</v>
+        <v>1835</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -24957,13 +26090,16 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B37" t="s">
-        <v>1845</v>
+        <v>2242</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2089</v>
       </c>
       <c r="D37" t="s">
-        <v>1848</v>
+        <v>1836</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -24974,13 +26110,16 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B38" t="s">
-        <v>1845</v>
+        <v>2242</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2089</v>
       </c>
       <c r="D38" t="s">
-        <v>1849</v>
+        <v>1837</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -24991,13 +26130,16 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B39" t="s">
-        <v>1845</v>
+        <v>2242</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2089</v>
       </c>
       <c r="D39" t="s">
-        <v>1850</v>
+        <v>1838</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -25008,13 +26150,16 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B40" t="s">
-        <v>1845</v>
+        <v>2242</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2089</v>
       </c>
       <c r="D40" t="s">
-        <v>1851</v>
+        <v>1839</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -25025,13 +26170,16 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B41" t="s">
-        <v>1845</v>
+        <v>2242</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2089</v>
       </c>
       <c r="D41" t="s">
-        <v>1852</v>
+        <v>1840</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -25042,30 +26190,36 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B42" t="s">
-        <v>1845</v>
+        <v>1841</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>2171</v>
       </c>
       <c r="D42" t="s">
-        <v>1853</v>
+        <v>1842</v>
       </c>
       <c r="E42">
         <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B43" t="s">
-        <v>1854</v>
+        <v>1841</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>2171</v>
       </c>
       <c r="D43" t="s">
-        <v>1855</v>
+        <v>1843</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -25076,13 +26230,16 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B44" t="s">
-        <v>1854</v>
+        <v>1841</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>2171</v>
       </c>
       <c r="D44" t="s">
-        <v>1856</v>
+        <v>1844</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -25093,13 +26250,16 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B45" t="s">
-        <v>1854</v>
+        <v>1841</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>2171</v>
       </c>
       <c r="D45" t="s">
-        <v>1857</v>
+        <v>1845</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -25110,81 +26270,96 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B46" t="s">
-        <v>1854</v>
+        <v>1841</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>2171</v>
       </c>
       <c r="D46" t="s">
-        <v>1858</v>
+        <v>1846</v>
       </c>
       <c r="E46">
         <v>1</v>
       </c>
       <c r="F46" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B47" t="s">
-        <v>1860</v>
+        <v>1841</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>2171</v>
       </c>
       <c r="D47" t="s">
-        <v>1859</v>
+        <v>1847</v>
       </c>
       <c r="E47">
         <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B48" t="s">
-        <v>1860</v>
+        <v>1841</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>2171</v>
       </c>
       <c r="D48" t="s">
-        <v>1861</v>
+        <v>1848</v>
       </c>
       <c r="E48">
         <v>1</v>
       </c>
       <c r="F48" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B49" t="s">
-        <v>1860</v>
+        <v>1841</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>2171</v>
       </c>
       <c r="D49" t="s">
-        <v>1862</v>
+        <v>1849</v>
       </c>
       <c r="E49">
         <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B50" t="s">
-        <v>1860</v>
+        <v>1850</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2150</v>
       </c>
       <c r="D50" t="s">
-        <v>1863</v>
+        <v>1851</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -25195,78 +26370,93 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B51" t="s">
-        <v>1860</v>
+        <v>1850</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2150</v>
       </c>
       <c r="D51" t="s">
-        <v>1864</v>
+        <v>1852</v>
       </c>
       <c r="E51">
         <v>1</v>
       </c>
       <c r="F51" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B52" t="s">
-        <v>1860</v>
+        <v>1850</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2150</v>
       </c>
       <c r="D52" t="s">
-        <v>1865</v>
+        <v>1853</v>
       </c>
       <c r="E52">
         <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B53" t="s">
-        <v>1860</v>
+        <v>1850</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2150</v>
       </c>
       <c r="D53" t="s">
-        <v>1866</v>
+        <v>1854</v>
       </c>
       <c r="E53">
         <v>1</v>
       </c>
       <c r="F53" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B54" t="s">
-        <v>1860</v>
+        <v>1850</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2150</v>
       </c>
       <c r="D54" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="E54">
         <v>1</v>
       </c>
       <c r="F54" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B55" t="s">
-        <v>1868</v>
+        <v>1850</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2150</v>
       </c>
       <c r="D55" t="s">
         <v>1869</v>
@@ -25280,10 +26470,13 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B56" t="s">
-        <v>1868</v>
+        <v>1850</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2150</v>
       </c>
       <c r="D56" t="s">
         <v>1870</v>
@@ -25297,10 +26490,13 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B57" t="s">
-        <v>1868</v>
+        <v>1850</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2150</v>
       </c>
       <c r="D57" t="s">
         <v>1871</v>
@@ -25314,13 +26510,16 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B58" t="s">
-        <v>1872</v>
+        <v>2243</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2189</v>
       </c>
       <c r="D58" t="s">
-        <v>1873</v>
+        <v>1868</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -25331,13 +26530,16 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B59" t="s">
-        <v>1872</v>
+        <v>2243</v>
+      </c>
+      <c r="C59" t="s">
+        <v>2189</v>
       </c>
       <c r="D59" t="s">
-        <v>1874</v>
+        <v>1869</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -25348,13 +26550,16 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B60" t="s">
-        <v>1872</v>
+        <v>2243</v>
+      </c>
+      <c r="C60" t="s">
+        <v>2189</v>
       </c>
       <c r="D60" t="s">
-        <v>1875</v>
+        <v>1870</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -25365,13 +26570,16 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B61" t="s">
-        <v>1872</v>
+        <v>2243</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2189</v>
       </c>
       <c r="D61" t="s">
-        <v>1876</v>
+        <v>1871</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -25382,13 +26590,16 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B62" t="s">
-        <v>1877</v>
+        <v>1884</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2155</v>
       </c>
       <c r="D62" t="s">
-        <v>1878</v>
+        <v>1885</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -25399,13 +26610,16 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B63" t="s">
-        <v>1877</v>
+        <v>1884</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2155</v>
       </c>
       <c r="D63" t="s">
-        <v>1879</v>
+        <v>1886</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -25416,13 +26630,16 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B64" t="s">
-        <v>1877</v>
+        <v>1884</v>
+      </c>
+      <c r="C64" t="s">
+        <v>2155</v>
       </c>
       <c r="D64" t="s">
-        <v>1880</v>
+        <v>1887</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -25433,13 +26650,16 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B65" t="s">
-        <v>1877</v>
+        <v>1884</v>
+      </c>
+      <c r="C65" t="s">
+        <v>2155</v>
       </c>
       <c r="D65" t="s">
-        <v>1881</v>
+        <v>1888</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -25450,98 +26670,116 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B66" t="s">
-        <v>1877</v>
+        <v>1884</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2155</v>
       </c>
       <c r="D66" t="s">
-        <v>1882</v>
+        <v>1889</v>
       </c>
       <c r="E66">
         <v>1</v>
       </c>
       <c r="F66" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B67" t="s">
-        <v>1877</v>
+        <v>1890</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2067</v>
       </c>
       <c r="D67" t="s">
-        <v>1883</v>
+        <v>1891</v>
       </c>
       <c r="E67">
         <v>1</v>
       </c>
       <c r="F67" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B68" t="s">
-        <v>1877</v>
+        <v>1890</v>
+      </c>
+      <c r="C68" t="s">
+        <v>2067</v>
       </c>
       <c r="D68" t="s">
-        <v>1884</v>
+        <v>1892</v>
       </c>
       <c r="E68">
         <v>1</v>
       </c>
       <c r="F68" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B69" t="s">
-        <v>1877</v>
+        <v>1890</v>
+      </c>
+      <c r="C69" t="s">
+        <v>2067</v>
       </c>
       <c r="D69" t="s">
-        <v>1879</v>
+        <v>1893</v>
       </c>
       <c r="E69">
         <v>1</v>
       </c>
       <c r="F69" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B70" t="s">
-        <v>1877</v>
+        <v>1890</v>
+      </c>
+      <c r="C70" t="s">
+        <v>2067</v>
       </c>
       <c r="D70" t="s">
-        <v>1885</v>
+        <v>1894</v>
       </c>
       <c r="E70">
         <v>1</v>
       </c>
       <c r="F70" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B71" t="s">
-        <v>1886</v>
+        <v>1929</v>
+      </c>
+      <c r="C71" t="s">
+        <v>2216</v>
       </c>
       <c r="D71" t="s">
-        <v>1887</v>
+        <v>1895</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -25552,13 +26790,16 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B72" t="s">
-        <v>1886</v>
+        <v>1929</v>
+      </c>
+      <c r="C72" t="s">
+        <v>2216</v>
       </c>
       <c r="D72" t="s">
-        <v>1888</v>
+        <v>1896</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -25569,13 +26810,16 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B73" t="s">
-        <v>1886</v>
+        <v>1929</v>
+      </c>
+      <c r="C73" t="s">
+        <v>2216</v>
       </c>
       <c r="D73" t="s">
-        <v>1889</v>
+        <v>1897</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -25586,13 +26830,16 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B74" t="s">
-        <v>1890</v>
+        <v>1898</v>
+      </c>
+      <c r="C74" t="s">
+        <v>2262</v>
       </c>
       <c r="D74" t="s">
-        <v>1891</v>
+        <v>1899</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -25603,13 +26850,16 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B75" t="s">
-        <v>1890</v>
+        <v>1898</v>
+      </c>
+      <c r="C75" t="s">
+        <v>2262</v>
       </c>
       <c r="D75" t="s">
-        <v>1892</v>
+        <v>1900</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -25620,13 +26870,16 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B76" t="s">
-        <v>1890</v>
+        <v>1898</v>
+      </c>
+      <c r="C76" t="s">
+        <v>2262</v>
       </c>
       <c r="D76" t="s">
-        <v>1893</v>
+        <v>1901</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -25637,13 +26890,16 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B77" t="s">
-        <v>1890</v>
+        <v>1902</v>
+      </c>
+      <c r="C77" t="s">
+        <v>2097</v>
       </c>
       <c r="D77" t="s">
-        <v>1894</v>
+        <v>1903</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -25654,13 +26910,16 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B78" t="s">
-        <v>1890</v>
+        <v>1902</v>
+      </c>
+      <c r="C78" t="s">
+        <v>2097</v>
       </c>
       <c r="D78" t="s">
-        <v>1895</v>
+        <v>1904</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -25671,13 +26930,16 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B79" t="s">
-        <v>1896</v>
+        <v>1902</v>
+      </c>
+      <c r="C79" t="s">
+        <v>2097</v>
       </c>
       <c r="D79" t="s">
-        <v>1897</v>
+        <v>1905</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -25688,13 +26950,16 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B80" t="s">
-        <v>1896</v>
+        <v>1902</v>
+      </c>
+      <c r="C80" t="s">
+        <v>2097</v>
       </c>
       <c r="D80" t="s">
-        <v>1898</v>
+        <v>1906</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -25703,15 +26968,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B81" t="s">
-        <v>1896</v>
+        <v>1907</v>
+      </c>
+      <c r="C81" t="s">
+        <v>2151</v>
       </c>
       <c r="D81" t="s">
-        <v>1899</v>
+        <v>1908</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -25720,15 +26988,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B82" t="s">
-        <v>1896</v>
+        <v>1907</v>
+      </c>
+      <c r="C82" t="s">
+        <v>2151</v>
       </c>
       <c r="D82" t="s">
-        <v>1900</v>
+        <v>1909</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -25737,15 +27008,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B83" t="s">
-        <v>1901</v>
+        <v>1907</v>
+      </c>
+      <c r="C83" t="s">
+        <v>2151</v>
       </c>
       <c r="D83" t="s">
-        <v>1902</v>
+        <v>1910</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -25754,15 +27028,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B84" t="s">
-        <v>1901</v>
+        <v>1907</v>
+      </c>
+      <c r="C84" t="s">
+        <v>2151</v>
       </c>
       <c r="D84" t="s">
-        <v>1903</v>
+        <v>1911</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -25771,15 +27048,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>1815</v>
+        <v>1924</v>
       </c>
       <c r="B85" t="s">
-        <v>1901</v>
+        <v>1929</v>
+      </c>
+      <c r="C85" t="s">
+        <v>2216</v>
       </c>
       <c r="D85" t="s">
-        <v>1904</v>
+        <v>1920</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -25787,16 +27067,22 @@
       <c r="F85" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G85" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>1815</v>
+        <v>1924</v>
       </c>
       <c r="B86" t="s">
-        <v>1905</v>
+        <v>1929</v>
+      </c>
+      <c r="C86" t="s">
+        <v>2216</v>
       </c>
       <c r="D86" t="s">
-        <v>1906</v>
+        <v>1922</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -25804,16 +27090,22 @@
       <c r="F86" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G86" t="s">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>1815</v>
+        <v>1924</v>
       </c>
       <c r="B87" t="s">
-        <v>1905</v>
+        <v>1929</v>
+      </c>
+      <c r="C87" t="s">
+        <v>2216</v>
       </c>
       <c r="D87" t="s">
-        <v>1907</v>
+        <v>1925</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -25821,16 +27113,22 @@
       <c r="F87" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G87" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>1815</v>
+        <v>1924</v>
       </c>
       <c r="B88" t="s">
-        <v>1905</v>
+        <v>1929</v>
+      </c>
+      <c r="C88" t="s">
+        <v>2216</v>
       </c>
       <c r="D88" t="s">
-        <v>1908</v>
+        <v>1926</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -25838,16 +27136,22 @@
       <c r="F88" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G88" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>1815</v>
+        <v>1924</v>
       </c>
       <c r="B89" t="s">
-        <v>1909</v>
+        <v>1930</v>
+      </c>
+      <c r="C89" t="s">
+        <v>2161</v>
       </c>
       <c r="D89" t="s">
-        <v>1910</v>
+        <v>1920</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -25855,16 +27159,22 @@
       <c r="F89" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G89" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>1815</v>
+        <v>1924</v>
       </c>
       <c r="B90" t="s">
-        <v>1909</v>
+        <v>1930</v>
+      </c>
+      <c r="C90" t="s">
+        <v>2161</v>
       </c>
       <c r="D90" t="s">
-        <v>1911</v>
+        <v>1922</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -25872,16 +27182,22 @@
       <c r="F90" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G90" t="s">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>1815</v>
+        <v>1924</v>
       </c>
       <c r="B91" t="s">
-        <v>1909</v>
+        <v>1930</v>
+      </c>
+      <c r="C91" t="s">
+        <v>2161</v>
       </c>
       <c r="D91" t="s">
-        <v>1912</v>
+        <v>1931</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -25889,67 +27205,91 @@
       <c r="F91" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G91" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>1815</v>
+        <v>1924</v>
       </c>
       <c r="B92" t="s">
-        <v>1909</v>
+        <v>1930</v>
+      </c>
+      <c r="C92" t="s">
+        <v>2161</v>
       </c>
       <c r="D92" t="s">
-        <v>1913</v>
+        <v>1920</v>
       </c>
       <c r="E92">
         <v>1</v>
       </c>
       <c r="F92" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="G92" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>1815</v>
+        <v>1924</v>
       </c>
       <c r="B93" t="s">
-        <v>1914</v>
+        <v>1930</v>
+      </c>
+      <c r="C93" t="s">
+        <v>2161</v>
       </c>
       <c r="D93" t="s">
-        <v>1915</v>
+        <v>1922</v>
       </c>
       <c r="E93">
         <v>1</v>
       </c>
       <c r="F93" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="G93" t="s">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>1815</v>
+        <v>1924</v>
       </c>
       <c r="B94" t="s">
-        <v>1914</v>
+        <v>1930</v>
+      </c>
+      <c r="C94" t="s">
+        <v>2161</v>
       </c>
       <c r="D94" t="s">
-        <v>1916</v>
+        <v>1933</v>
       </c>
       <c r="E94">
         <v>1</v>
       </c>
       <c r="F94" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="G94" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>1815</v>
+        <v>1924</v>
       </c>
       <c r="B95" t="s">
-        <v>1914</v>
+        <v>1929</v>
+      </c>
+      <c r="C95" t="s">
+        <v>2216</v>
       </c>
       <c r="D95" t="s">
-        <v>1917</v>
+        <v>1920</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -25957,115 +27297,157 @@
       <c r="F95" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G95" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>1815</v>
+        <v>1924</v>
       </c>
       <c r="B96" t="s">
-        <v>1914</v>
+        <v>1929</v>
+      </c>
+      <c r="C96" t="s">
+        <v>2216</v>
       </c>
       <c r="D96" t="s">
-        <v>1918</v>
+        <v>1922</v>
       </c>
       <c r="E96">
         <v>1</v>
       </c>
       <c r="F96" t="s">
         <v>3</v>
+      </c>
+      <c r="G96" t="s">
+        <v>1923</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>1815</v>
+        <v>1924</v>
       </c>
       <c r="B97" t="s">
-        <v>1919</v>
+        <v>1929</v>
+      </c>
+      <c r="C97" t="s">
+        <v>2216</v>
       </c>
       <c r="D97" t="s">
-        <v>1920</v>
+        <v>1934</v>
       </c>
       <c r="E97">
         <v>1</v>
       </c>
       <c r="F97" t="s">
         <v>3</v>
+      </c>
+      <c r="G97" t="s">
+        <v>1935</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>1815</v>
+        <v>1924</v>
       </c>
       <c r="B98" t="s">
-        <v>1919</v>
+        <v>1929</v>
+      </c>
+      <c r="C98" t="s">
+        <v>2216</v>
       </c>
       <c r="D98" t="s">
-        <v>1921</v>
+        <v>1926</v>
       </c>
       <c r="E98">
         <v>1</v>
       </c>
       <c r="F98" t="s">
         <v>3</v>
+      </c>
+      <c r="G98" t="s">
+        <v>1927</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>1815</v>
+        <v>1924</v>
       </c>
       <c r="B99" t="s">
-        <v>1919</v>
+        <v>1907</v>
+      </c>
+      <c r="C99" t="s">
+        <v>2151</v>
       </c>
       <c r="D99" t="s">
-        <v>1922</v>
+        <v>1920</v>
       </c>
       <c r="E99">
         <v>1</v>
       </c>
       <c r="F99" t="s">
         <v>3</v>
+      </c>
+      <c r="G99" t="s">
+        <v>1921</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>1815</v>
+        <v>1924</v>
       </c>
       <c r="B100" t="s">
+        <v>1907</v>
+      </c>
+      <c r="C100" t="s">
+        <v>2151</v>
+      </c>
+      <c r="D100" t="s">
+        <v>1922</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100" t="s">
+        <v>3</v>
+      </c>
+      <c r="G100" t="s">
         <v>1923</v>
-      </c>
-      <c r="D100" t="s">
-        <v>1924</v>
-      </c>
-      <c r="E100">
-        <v>1</v>
-      </c>
-      <c r="F100" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>1815</v>
+        <v>1924</v>
       </c>
       <c r="B101" t="s">
-        <v>1923</v>
+        <v>1907</v>
+      </c>
+      <c r="C101" t="s">
+        <v>2151</v>
       </c>
       <c r="D101" t="s">
-        <v>1925</v>
+        <v>1934</v>
       </c>
       <c r="E101">
         <v>1</v>
       </c>
       <c r="F101" t="s">
         <v>3</v>
+      </c>
+      <c r="G101" t="s">
+        <v>1935</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>1815</v>
+        <v>1924</v>
       </c>
       <c r="B102" t="s">
-        <v>1923</v>
+        <v>1907</v>
+      </c>
+      <c r="C102" t="s">
+        <v>2151</v>
       </c>
       <c r="D102" t="s">
         <v>1926</v>
@@ -26076,566 +27458,3953 @@
       <c r="F102" t="s">
         <v>3</v>
       </c>
+      <c r="G102" t="s">
+        <v>1927</v>
+      </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>1931</v>
+        <v>1924</v>
       </c>
       <c r="B103" t="s">
-        <v>1936</v>
+        <v>1937</v>
+      </c>
+      <c r="C103" t="s">
+        <v>2194</v>
       </c>
       <c r="D103" t="s">
-        <v>1927</v>
+        <v>1920</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
       </c>
       <c r="F103" t="s">
         <v>3</v>
       </c>
       <c r="G103" t="s">
-        <v>1928</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>1931</v>
+        <v>1924</v>
       </c>
       <c r="B104" t="s">
-        <v>1936</v>
+        <v>1937</v>
+      </c>
+      <c r="C104" t="s">
+        <v>2194</v>
       </c>
       <c r="D104" t="s">
-        <v>1929</v>
+        <v>1922</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
       </c>
       <c r="F104" t="s">
         <v>3</v>
       </c>
       <c r="G104" t="s">
-        <v>1930</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>1931</v>
+        <v>1924</v>
       </c>
       <c r="B105" t="s">
+        <v>1937</v>
+      </c>
+      <c r="C105" t="s">
+        <v>2194</v>
+      </c>
+      <c r="D105" t="s">
         <v>1936</v>
       </c>
-      <c r="D105" t="s">
-        <v>1932</v>
+      <c r="E105">
+        <v>1</v>
       </c>
       <c r="F105" t="s">
         <v>3</v>
       </c>
       <c r="G105" t="s">
-        <v>1935</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>1931</v>
+        <v>1924</v>
       </c>
       <c r="B106" t="s">
-        <v>1936</v>
+        <v>1937</v>
+      </c>
+      <c r="C106" t="s">
+        <v>2194</v>
       </c>
       <c r="D106" t="s">
-        <v>1933</v>
+        <v>1920</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
       </c>
       <c r="F106" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G106" t="s">
-        <v>1934</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>1931</v>
+        <v>1924</v>
       </c>
       <c r="B107" t="s">
         <v>1937</v>
       </c>
+      <c r="C107" t="s">
+        <v>2194</v>
+      </c>
       <c r="D107" t="s">
-        <v>1927</v>
+        <v>1922</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
       </c>
       <c r="F107" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G107" t="s">
-        <v>1928</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>1931</v>
+        <v>1924</v>
       </c>
       <c r="B108" t="s">
         <v>1937</v>
       </c>
+      <c r="C108" t="s">
+        <v>2194</v>
+      </c>
       <c r="D108" t="s">
-        <v>1929</v>
+        <v>1939</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
       </c>
       <c r="F108" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G108" t="s">
-        <v>1930</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>1931</v>
+        <v>1924</v>
       </c>
       <c r="B109" t="s">
-        <v>1937</v>
+        <v>1943</v>
+      </c>
+      <c r="C109" t="s">
+        <v>2212</v>
       </c>
       <c r="D109" t="s">
-        <v>1938</v>
+        <v>1920</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
       </c>
       <c r="F109" t="s">
         <v>3</v>
       </c>
       <c r="G109" t="s">
-        <v>1939</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>1931</v>
+        <v>1924</v>
       </c>
       <c r="B110" t="s">
-        <v>1937</v>
+        <v>1943</v>
+      </c>
+      <c r="C110" t="s">
+        <v>2212</v>
       </c>
       <c r="D110" t="s">
-        <v>1927</v>
+        <v>1922</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
       </c>
       <c r="F110" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G110" t="s">
-        <v>1928</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>1931</v>
+        <v>1924</v>
       </c>
       <c r="B111" t="s">
-        <v>1937</v>
+        <v>1943</v>
+      </c>
+      <c r="C111" t="s">
+        <v>2212</v>
       </c>
       <c r="D111" t="s">
-        <v>1929</v>
+        <v>1041</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
       </c>
       <c r="F111" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G111" t="s">
-        <v>1930</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>1931</v>
+        <v>1924</v>
       </c>
       <c r="B112" t="s">
-        <v>1937</v>
+        <v>1945</v>
+      </c>
+      <c r="C112" t="s">
+        <v>2222</v>
       </c>
       <c r="D112" t="s">
-        <v>1940</v>
+        <v>1920</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
       </c>
       <c r="F112" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G112" t="s">
-        <v>1939</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>1931</v>
+        <v>1924</v>
       </c>
       <c r="B113" t="s">
-        <v>1943</v>
+        <v>1945</v>
+      </c>
+      <c r="C113" t="s">
+        <v>2222</v>
       </c>
       <c r="D113" t="s">
-        <v>1927</v>
+        <v>1035</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
       </c>
       <c r="F113" t="s">
         <v>3</v>
       </c>
       <c r="G113" t="s">
-        <v>1928</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>1931</v>
+        <v>1924</v>
       </c>
       <c r="B114" t="s">
-        <v>1943</v>
+        <v>1945</v>
+      </c>
+      <c r="C114" t="s">
+        <v>2222</v>
       </c>
       <c r="D114" t="s">
-        <v>1929</v>
+        <v>1036</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
       </c>
       <c r="F114" t="s">
         <v>3</v>
       </c>
       <c r="G114" t="s">
-        <v>1930</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>1931</v>
+        <v>1924</v>
       </c>
       <c r="B115" t="s">
-        <v>1943</v>
+        <v>1945</v>
+      </c>
+      <c r="C115" t="s">
+        <v>2222</v>
       </c>
       <c r="D115" t="s">
-        <v>1941</v>
+        <v>1037</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
       </c>
       <c r="F115" t="s">
         <v>3</v>
       </c>
       <c r="G115" t="s">
-        <v>1942</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>1931</v>
+        <v>1924</v>
       </c>
       <c r="B116" t="s">
-        <v>1943</v>
+        <v>1949</v>
+      </c>
+      <c r="C116" t="s">
+        <v>2253</v>
       </c>
       <c r="D116" t="s">
-        <v>1933</v>
+        <v>1951</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
       </c>
       <c r="F116" t="s">
         <v>3</v>
       </c>
       <c r="G116" t="s">
-        <v>1934</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>1931</v>
+        <v>1924</v>
       </c>
       <c r="B117" t="s">
-        <v>1945</v>
+        <v>1949</v>
+      </c>
+      <c r="C117" t="s">
+        <v>2253</v>
       </c>
       <c r="D117" t="s">
-        <v>1927</v>
+        <v>1952</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
       </c>
       <c r="F117" t="s">
         <v>3</v>
       </c>
       <c r="G117" t="s">
-        <v>1928</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>1931</v>
+        <v>1924</v>
       </c>
       <c r="B118" t="s">
-        <v>1945</v>
+        <v>1949</v>
+      </c>
+      <c r="C118" t="s">
+        <v>2253</v>
       </c>
       <c r="D118" t="s">
-        <v>1929</v>
+        <v>1954</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
       </c>
       <c r="F118" t="s">
         <v>3</v>
       </c>
       <c r="G118" t="s">
-        <v>1930</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>1931</v>
+        <v>1965</v>
       </c>
       <c r="B119" t="s">
-        <v>1945</v>
+        <v>1956</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>2184</v>
       </c>
       <c r="D119" t="s">
-        <v>1944</v>
+        <v>1957</v>
+      </c>
+      <c r="E119">
+        <v>3</v>
       </c>
       <c r="F119" t="s">
         <v>3</v>
       </c>
       <c r="G119" t="s">
-        <v>1946</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>1931</v>
+        <v>1965</v>
       </c>
       <c r="B120" t="s">
-        <v>1945</v>
+        <v>1956</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>2184</v>
       </c>
       <c r="D120" t="s">
-        <v>1927</v>
+        <v>1958</v>
+      </c>
+      <c r="E120">
+        <v>3</v>
       </c>
       <c r="F120" t="s">
         <v>8</v>
       </c>
       <c r="G120" t="s">
-        <v>1928</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>1931</v>
+        <v>1965</v>
       </c>
       <c r="B121" t="s">
-        <v>1945</v>
+        <v>1960</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>2144</v>
       </c>
       <c r="D121" t="s">
-        <v>1929</v>
+        <v>1961</v>
+      </c>
+      <c r="E121">
+        <v>5</v>
       </c>
       <c r="F121" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G121" t="s">
-        <v>1930</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>1931</v>
+        <v>1965</v>
       </c>
       <c r="B122" t="s">
-        <v>1945</v>
+        <v>1960</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>2144</v>
       </c>
       <c r="D122" t="s">
-        <v>1947</v>
+        <v>1962</v>
+      </c>
+      <c r="E122">
+        <v>5</v>
       </c>
       <c r="F122" t="s">
         <v>8</v>
       </c>
       <c r="G122" t="s">
-        <v>1946</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>1931</v>
+        <v>1965</v>
       </c>
       <c r="B123" t="s">
-        <v>1948</v>
+        <v>2246</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>2205</v>
       </c>
       <c r="D123" t="s">
-        <v>1927</v>
+        <v>1972</v>
+      </c>
+      <c r="E123">
+        <v>1</v>
       </c>
       <c r="F123" t="s">
         <v>3</v>
       </c>
       <c r="G123" t="s">
-        <v>1928</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>1931</v>
+        <v>1965</v>
       </c>
       <c r="B124" t="s">
-        <v>1948</v>
+        <v>2245</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>2117</v>
       </c>
       <c r="D124" t="s">
-        <v>1929</v>
+        <v>1972</v>
+      </c>
+      <c r="E124">
+        <v>1</v>
       </c>
       <c r="F124" t="s">
         <v>3</v>
       </c>
       <c r="G124" t="s">
-        <v>1930</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>1931</v>
+        <v>1965</v>
       </c>
       <c r="B125" t="s">
-        <v>1948</v>
+        <v>1841</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>2171</v>
       </c>
       <c r="D125" t="s">
-        <v>1949</v>
+        <v>1974</v>
+      </c>
+      <c r="E125">
+        <v>1</v>
       </c>
       <c r="F125" t="s">
         <v>3</v>
       </c>
       <c r="G125" t="s">
-        <v>1950</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>1931</v>
+        <v>1965</v>
       </c>
       <c r="B126" t="s">
-        <v>1948</v>
+        <v>1985</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>2204</v>
       </c>
       <c r="D126" t="s">
-        <v>1933</v>
+        <v>1976</v>
+      </c>
+      <c r="E126">
+        <v>1</v>
       </c>
       <c r="F126" t="s">
         <v>3</v>
       </c>
       <c r="G126" t="s">
-        <v>1934</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>1931</v>
+        <v>1965</v>
       </c>
       <c r="B127" t="s">
-        <v>1951</v>
+        <v>2247</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>2107</v>
       </c>
       <c r="D127" t="s">
-        <v>1927</v>
+        <v>1976</v>
+      </c>
+      <c r="E127">
+        <v>1</v>
       </c>
       <c r="F127" t="s">
         <v>3</v>
       </c>
       <c r="G127" t="s">
-        <v>1928</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>1931</v>
+        <v>1965</v>
       </c>
       <c r="B128" t="s">
-        <v>1951</v>
+        <v>1978</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>2162</v>
       </c>
       <c r="D128" t="s">
-        <v>1929</v>
+        <v>1980</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
       </c>
       <c r="F128" t="s">
         <v>3</v>
       </c>
       <c r="G128" t="s">
-        <v>1930</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>1931</v>
+        <v>1965</v>
       </c>
       <c r="B129" t="s">
-        <v>1951</v>
+        <v>1978</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>2162</v>
       </c>
       <c r="D129" t="s">
-        <v>1041</v>
+        <v>1981</v>
+      </c>
+      <c r="E129">
+        <v>1</v>
       </c>
       <c r="F129" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G129" t="s">
-        <v>1952</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>1965</v>
+      </c>
       <c r="B130" t="s">
-        <v>1953</v>
+        <v>1982</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>2082</v>
       </c>
       <c r="D130" t="s">
-        <v>1927</v>
+        <v>1984</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
       </c>
       <c r="F130" t="s">
         <v>3</v>
       </c>
       <c r="G130" t="s">
-        <v>1928</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>1965</v>
+      </c>
       <c r="B131" t="s">
-        <v>1953</v>
+        <v>1985</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>2204</v>
       </c>
       <c r="D131" t="s">
-        <v>1035</v>
+        <v>1987</v>
+      </c>
+      <c r="E131">
+        <v>1</v>
       </c>
       <c r="F131" t="s">
         <v>3</v>
       </c>
       <c r="G131" t="s">
-        <v>1954</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>1965</v>
+      </c>
       <c r="B132" t="s">
-        <v>1953</v>
+        <v>1985</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>2204</v>
       </c>
       <c r="D132" t="s">
-        <v>1036</v>
+        <v>1988</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
       </c>
       <c r="F132" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G132" t="s">
-        <v>1955</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>1965</v>
+      </c>
       <c r="B133" t="s">
-        <v>1953</v>
+        <v>2248</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>2185</v>
       </c>
       <c r="D133" t="s">
-        <v>1037</v>
+        <v>1989</v>
+      </c>
+      <c r="E133">
+        <v>1</v>
       </c>
       <c r="F133" t="s">
         <v>3</v>
       </c>
       <c r="G133" t="s">
-        <v>1956</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>1965</v>
+      </c>
       <c r="B134" t="s">
-        <v>1957</v>
+        <v>2248</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>2185</v>
       </c>
       <c r="D134" t="s">
-        <v>1959</v>
+        <v>1990</v>
+      </c>
+      <c r="E134">
+        <v>1</v>
       </c>
       <c r="F134" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G134" t="s">
-        <v>1958</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>1965</v>
+      </c>
       <c r="B135" t="s">
-        <v>1957</v>
+        <v>2248</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>2185</v>
       </c>
       <c r="D135" t="s">
+        <v>1991</v>
+      </c>
+      <c r="E135">
+        <v>1</v>
+      </c>
+      <c r="F135" t="s">
+        <v>46</v>
+      </c>
+      <c r="G135" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>1965</v>
+      </c>
+      <c r="B136" t="s">
+        <v>2248</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>2185</v>
+      </c>
+      <c r="D136" t="s">
+        <v>1992</v>
+      </c>
+      <c r="E136">
+        <v>1</v>
+      </c>
+      <c r="F136" t="s">
+        <v>1993</v>
+      </c>
+      <c r="G136" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B137" t="s">
+        <v>1996</v>
+      </c>
+      <c r="C137" t="s">
+        <v>2273</v>
+      </c>
+      <c r="D137" t="s">
+        <v>1997</v>
+      </c>
+      <c r="E137">
+        <v>1</v>
+      </c>
+      <c r="F137" t="s">
+        <v>3</v>
+      </c>
+      <c r="G137" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>1999</v>
+      </c>
+      <c r="B138" t="s">
+        <v>2000</v>
+      </c>
+      <c r="C138" t="s">
+        <v>2274</v>
+      </c>
+      <c r="D138" t="s">
+        <v>2003</v>
+      </c>
+      <c r="E138">
+        <v>1</v>
+      </c>
+      <c r="F138" t="s">
+        <v>3</v>
+      </c>
+      <c r="G138" t="s">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B139" t="s">
+        <v>1982</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>2082</v>
+      </c>
+      <c r="D139" t="s">
+        <v>2001</v>
+      </c>
+      <c r="E139">
+        <v>1</v>
+      </c>
+      <c r="F139" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1982</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>2082</v>
+      </c>
+      <c r="D140" t="s">
+        <v>2005</v>
+      </c>
+      <c r="E140">
+        <v>1</v>
+      </c>
+      <c r="F140" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1982</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>2082</v>
+      </c>
+      <c r="D141" t="s">
+        <v>2002</v>
+      </c>
+      <c r="E141">
+        <v>1</v>
+      </c>
+      <c r="F141" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1982</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>2082</v>
+      </c>
+      <c r="D142" t="s">
+        <v>2006</v>
+      </c>
+      <c r="E142">
+        <v>1</v>
+      </c>
+      <c r="F142" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B143" t="s">
+        <v>1978</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>2162</v>
+      </c>
+      <c r="D143" t="s">
+        <v>2001</v>
+      </c>
+      <c r="E143">
+        <v>1</v>
+      </c>
+      <c r="F143" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1978</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>2162</v>
+      </c>
+      <c r="D144" t="s">
+        <v>2005</v>
+      </c>
+      <c r="E144">
+        <v>1</v>
+      </c>
+      <c r="F144" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1978</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>2162</v>
+      </c>
+      <c r="D145" t="s">
+        <v>2002</v>
+      </c>
+      <c r="E145">
+        <v>1</v>
+      </c>
+      <c r="F145" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1978</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>2162</v>
+      </c>
+      <c r="D146" t="s">
+        <v>2006</v>
+      </c>
+      <c r="E146">
+        <v>1</v>
+      </c>
+      <c r="F146" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>1965</v>
+      </c>
+      <c r="B147" t="s">
         <v>1960</v>
       </c>
-      <c r="F135" t="s">
-        <v>3</v>
-      </c>
-      <c r="G135" t="s">
-        <v>1961</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B136" t="s">
-        <v>1957</v>
-      </c>
-      <c r="D136" t="s">
-        <v>1962</v>
-      </c>
-      <c r="F136" t="s">
-        <v>3</v>
-      </c>
-      <c r="G136" t="s">
-        <v>1963</v>
+      <c r="C147" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="D147" t="s">
+        <v>2007</v>
+      </c>
+      <c r="E147">
+        <v>1</v>
+      </c>
+      <c r="F147" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>1965</v>
+      </c>
+      <c r="B148" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>2117</v>
+      </c>
+      <c r="D148" t="s">
+        <v>2007</v>
+      </c>
+      <c r="E148">
+        <v>1</v>
+      </c>
+      <c r="F148" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B149" t="s">
+        <v>2011</v>
+      </c>
+      <c r="C149" t="s">
+        <v>2276</v>
+      </c>
+      <c r="D149" t="s">
+        <v>2012</v>
+      </c>
+      <c r="E149">
+        <v>1</v>
+      </c>
+      <c r="F149" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B150" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C150" t="s">
+        <v>2277</v>
+      </c>
+      <c r="D150" t="s">
+        <v>2014</v>
+      </c>
+      <c r="E150">
+        <v>1</v>
+      </c>
+      <c r="F150" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B151" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C151" t="s">
+        <v>2277</v>
+      </c>
+      <c r="D151" t="s">
+        <v>2015</v>
+      </c>
+      <c r="E151">
+        <v>1</v>
+      </c>
+      <c r="F151" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B152" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C152" t="s">
+        <v>2277</v>
+      </c>
+      <c r="D152" t="s">
+        <v>2016</v>
+      </c>
+      <c r="E152">
+        <v>1</v>
+      </c>
+      <c r="F152" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B153" t="s">
+        <v>2017</v>
+      </c>
+      <c r="C153" t="s">
+        <v>2278</v>
+      </c>
+      <c r="D153" t="s">
+        <v>2018</v>
+      </c>
+      <c r="E153">
+        <v>1</v>
+      </c>
+      <c r="F153" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B154" t="s">
+        <v>2019</v>
+      </c>
+      <c r="C154" t="s">
+        <v>2279</v>
+      </c>
+      <c r="D154" t="s">
+        <v>2020</v>
+      </c>
+      <c r="E154">
+        <v>1</v>
+      </c>
+      <c r="F154" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B155" t="s">
+        <v>2019</v>
+      </c>
+      <c r="C155" t="s">
+        <v>2279</v>
+      </c>
+      <c r="D155" t="s">
+        <v>2021</v>
+      </c>
+      <c r="E155">
+        <v>1</v>
+      </c>
+      <c r="F155" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B156" t="s">
+        <v>2019</v>
+      </c>
+      <c r="C156" t="s">
+        <v>2279</v>
+      </c>
+      <c r="D156" t="s">
+        <v>2022</v>
+      </c>
+      <c r="E156">
+        <v>1</v>
+      </c>
+      <c r="F156" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B157" t="s">
+        <v>2019</v>
+      </c>
+      <c r="C157" t="s">
+        <v>2279</v>
+      </c>
+      <c r="D157" t="s">
+        <v>2023</v>
+      </c>
+      <c r="E157">
+        <v>1</v>
+      </c>
+      <c r="F157" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B158" t="s">
+        <v>2024</v>
+      </c>
+      <c r="C158" t="s">
+        <v>2280</v>
+      </c>
+      <c r="D158" t="s">
+        <v>2020</v>
+      </c>
+      <c r="E158">
+        <v>1</v>
+      </c>
+      <c r="F158" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B159" t="s">
+        <v>2024</v>
+      </c>
+      <c r="C159" t="s">
+        <v>2280</v>
+      </c>
+      <c r="D159" t="s">
+        <v>2021</v>
+      </c>
+      <c r="E159">
+        <v>1</v>
+      </c>
+      <c r="F159" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B160" t="s">
+        <v>2024</v>
+      </c>
+      <c r="C160" t="s">
+        <v>2280</v>
+      </c>
+      <c r="D160" t="s">
+        <v>2022</v>
+      </c>
+      <c r="E160">
+        <v>1</v>
+      </c>
+      <c r="F160" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B161" t="s">
+        <v>2024</v>
+      </c>
+      <c r="C161" t="s">
+        <v>2280</v>
+      </c>
+      <c r="D161" t="s">
+        <v>2023</v>
+      </c>
+      <c r="E161">
+        <v>1</v>
+      </c>
+      <c r="F161" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B162" t="s">
+        <v>2025</v>
+      </c>
+      <c r="C162" t="s">
+        <v>2281</v>
+      </c>
+      <c r="D162" t="s">
+        <v>2026</v>
+      </c>
+      <c r="E162">
+        <v>1</v>
+      </c>
+      <c r="F162" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>1965</v>
+      </c>
+      <c r="B163" t="s">
+        <v>2027</v>
+      </c>
+      <c r="C163" t="s">
+        <v>2179</v>
+      </c>
+      <c r="D163" t="s">
+        <v>2028</v>
+      </c>
+      <c r="E163">
+        <v>1</v>
+      </c>
+      <c r="F163" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B164" t="s">
+        <v>2029</v>
+      </c>
+      <c r="C164" t="s">
+        <v>2267</v>
+      </c>
+      <c r="D164" t="s">
+        <v>2030</v>
+      </c>
+      <c r="E164">
+        <v>1</v>
+      </c>
+      <c r="F164" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B165" t="s">
+        <v>2031</v>
+      </c>
+      <c r="C165" t="s">
+        <v>2268</v>
+      </c>
+      <c r="D165" t="s">
+        <v>2032</v>
+      </c>
+      <c r="E165">
+        <v>1</v>
+      </c>
+      <c r="F165" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B166" t="s">
+        <v>2031</v>
+      </c>
+      <c r="C166" t="s">
+        <v>2268</v>
+      </c>
+      <c r="D166" t="s">
+        <v>2033</v>
+      </c>
+      <c r="E166">
+        <v>1</v>
+      </c>
+      <c r="F166" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B167" t="s">
+        <v>2031</v>
+      </c>
+      <c r="C167" t="s">
+        <v>2268</v>
+      </c>
+      <c r="D167" t="s">
+        <v>2034</v>
+      </c>
+      <c r="E167">
+        <v>1</v>
+      </c>
+      <c r="F167" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B168" t="s">
+        <v>2031</v>
+      </c>
+      <c r="C168" t="s">
+        <v>2268</v>
+      </c>
+      <c r="D168" t="s">
+        <v>2035</v>
+      </c>
+      <c r="E168">
+        <v>1</v>
+      </c>
+      <c r="F168" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>1999</v>
+      </c>
+      <c r="B169" t="s">
+        <v>2269</v>
+      </c>
+      <c r="C169" t="s">
+        <v>2270</v>
+      </c>
+      <c r="D169" t="s">
+        <v>2036</v>
+      </c>
+      <c r="E169">
+        <v>1</v>
+      </c>
+      <c r="F169" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>1999</v>
+      </c>
+      <c r="B170" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C170" t="s">
+        <v>2282</v>
+      </c>
+      <c r="D170" t="s">
+        <v>2037</v>
+      </c>
+      <c r="E170">
+        <v>1</v>
+      </c>
+      <c r="F170" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>1999</v>
+      </c>
+      <c r="B171" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C171" t="s">
+        <v>2265</v>
+      </c>
+      <c r="D171" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E171">
+        <v>1</v>
+      </c>
+      <c r="F171" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>1999</v>
+      </c>
+      <c r="B172" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C172" t="s">
+        <v>2265</v>
+      </c>
+      <c r="D172" t="s">
+        <v>2040</v>
+      </c>
+      <c r="E172">
+        <v>1</v>
+      </c>
+      <c r="F172" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>1999</v>
+      </c>
+      <c r="B173" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C173" t="s">
+        <v>2265</v>
+      </c>
+      <c r="D173" t="s">
+        <v>2041</v>
+      </c>
+      <c r="E173">
+        <v>1</v>
+      </c>
+      <c r="F173" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>1999</v>
+      </c>
+      <c r="B174" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C174" t="s">
+        <v>2265</v>
+      </c>
+      <c r="D174" t="s">
+        <v>2042</v>
+      </c>
+      <c r="E174">
+        <v>1</v>
+      </c>
+      <c r="F174" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>1999</v>
+      </c>
+      <c r="B175" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C175" t="s">
+        <v>2265</v>
+      </c>
+      <c r="D175" t="s">
+        <v>2043</v>
+      </c>
+      <c r="E175">
+        <v>1</v>
+      </c>
+      <c r="F175" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>1999</v>
+      </c>
+      <c r="B176" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C176" t="s">
+        <v>2265</v>
+      </c>
+      <c r="D176" t="s">
+        <v>2044</v>
+      </c>
+      <c r="E176">
+        <v>1</v>
+      </c>
+      <c r="F176" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>1999</v>
+      </c>
+      <c r="B177" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C177" t="s">
+        <v>2265</v>
+      </c>
+      <c r="D177" t="s">
+        <v>2045</v>
+      </c>
+      <c r="E177">
+        <v>1</v>
+      </c>
+      <c r="F177" t="s">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>1999</v>
+      </c>
+      <c r="B178" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C178" t="s">
+        <v>2265</v>
+      </c>
+      <c r="D178" t="s">
+        <v>2046</v>
+      </c>
+      <c r="E178">
+        <v>1</v>
+      </c>
+      <c r="F178" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>1999</v>
+      </c>
+      <c r="B179" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C179" t="s">
+        <v>2265</v>
+      </c>
+      <c r="D179" t="s">
+        <v>2047</v>
+      </c>
+      <c r="E179">
+        <v>1</v>
+      </c>
+      <c r="F179" t="s">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>1999</v>
+      </c>
+      <c r="B180" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C180" t="s">
+        <v>2265</v>
+      </c>
+      <c r="D180" t="s">
+        <v>2056</v>
+      </c>
+      <c r="E180">
+        <v>1</v>
+      </c>
+      <c r="F180" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>1999</v>
+      </c>
+      <c r="B181" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C181" t="s">
+        <v>2265</v>
+      </c>
+      <c r="D181" t="s">
+        <v>2057</v>
+      </c>
+      <c r="E181">
+        <v>1</v>
+      </c>
+      <c r="F181" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>1999</v>
+      </c>
+      <c r="B182" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C182" t="s">
+        <v>2265</v>
+      </c>
+      <c r="D182" t="s">
+        <v>2058</v>
+      </c>
+      <c r="E182">
+        <v>1</v>
+      </c>
+      <c r="F182" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>1999</v>
+      </c>
+      <c r="B183" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C183" t="s">
+        <v>2265</v>
+      </c>
+      <c r="D183" t="s">
+        <v>2059</v>
+      </c>
+      <c r="E183">
+        <v>1</v>
+      </c>
+      <c r="F183" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>1999</v>
+      </c>
+      <c r="B184" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C184" t="s">
+        <v>2265</v>
+      </c>
+      <c r="D184" t="s">
+        <v>2060</v>
+      </c>
+      <c r="E184">
+        <v>1</v>
+      </c>
+      <c r="F184" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>1999</v>
+      </c>
+      <c r="B185" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C185" t="s">
+        <v>2265</v>
+      </c>
+      <c r="D185" t="s">
+        <v>2061</v>
+      </c>
+      <c r="E185">
+        <v>1</v>
+      </c>
+      <c r="F185" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>1999</v>
+      </c>
+      <c r="B186" t="s">
+        <v>2048</v>
+      </c>
+      <c r="C186" t="s">
+        <v>2266</v>
+      </c>
+      <c r="D186" t="s">
+        <v>2049</v>
+      </c>
+      <c r="E186">
+        <v>1</v>
+      </c>
+      <c r="F186" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B187" t="s">
+        <v>2250</v>
+      </c>
+      <c r="D187" t="s">
+        <v>1855</v>
+      </c>
+      <c r="E187">
+        <v>1</v>
+      </c>
+      <c r="F187" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B188" t="s">
+        <v>2250</v>
+      </c>
+      <c r="D188" t="s">
+        <v>1856</v>
+      </c>
+      <c r="E188">
+        <v>1</v>
+      </c>
+      <c r="F188" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B189" t="s">
+        <v>2250</v>
+      </c>
+      <c r="D189" t="s">
+        <v>1857</v>
+      </c>
+      <c r="E189">
+        <v>1</v>
+      </c>
+      <c r="F189" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B190" t="s">
+        <v>2250</v>
+      </c>
+      <c r="D190" t="s">
+        <v>1858</v>
+      </c>
+      <c r="E190">
+        <v>1</v>
+      </c>
+      <c r="F190" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B191" t="s">
+        <v>2250</v>
+      </c>
+      <c r="D191" t="s">
+        <v>1859</v>
+      </c>
+      <c r="E191">
+        <v>1</v>
+      </c>
+      <c r="F191" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B192" t="s">
+        <v>2250</v>
+      </c>
+      <c r="D192" t="s">
+        <v>1860</v>
+      </c>
+      <c r="E192">
+        <v>1</v>
+      </c>
+      <c r="F192" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B193" t="s">
+        <v>2250</v>
+      </c>
+      <c r="D193" t="s">
+        <v>1861</v>
+      </c>
+      <c r="E193">
+        <v>1</v>
+      </c>
+      <c r="F193" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B194" t="s">
+        <v>2250</v>
+      </c>
+      <c r="D194" t="s">
+        <v>1862</v>
+      </c>
+      <c r="E194">
+        <v>1</v>
+      </c>
+      <c r="F194" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B195" t="s">
+        <v>2251</v>
+      </c>
+      <c r="D195" t="s">
+        <v>1872</v>
+      </c>
+      <c r="E195">
+        <v>1</v>
+      </c>
+      <c r="F195" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B196" t="s">
+        <v>2251</v>
+      </c>
+      <c r="D196" t="s">
+        <v>1873</v>
+      </c>
+      <c r="E196">
+        <v>1</v>
+      </c>
+      <c r="F196" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B197" t="s">
+        <v>2251</v>
+      </c>
+      <c r="D197" t="s">
+        <v>1874</v>
+      </c>
+      <c r="E197">
+        <v>1</v>
+      </c>
+      <c r="F197" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B198" t="s">
+        <v>2251</v>
+      </c>
+      <c r="D198" t="s">
+        <v>1875</v>
+      </c>
+      <c r="E198">
+        <v>1</v>
+      </c>
+      <c r="F198" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B199" t="s">
+        <v>2251</v>
+      </c>
+      <c r="D199" t="s">
+        <v>1876</v>
+      </c>
+      <c r="E199">
+        <v>1</v>
+      </c>
+      <c r="F199" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B200" t="s">
+        <v>2251</v>
+      </c>
+      <c r="D200" t="s">
+        <v>1877</v>
+      </c>
+      <c r="E200">
+        <v>1</v>
+      </c>
+      <c r="F200" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B201" t="s">
+        <v>2251</v>
+      </c>
+      <c r="D201" t="s">
+        <v>1878</v>
+      </c>
+      <c r="E201">
+        <v>1</v>
+      </c>
+      <c r="F201" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B202" t="s">
+        <v>2251</v>
+      </c>
+      <c r="D202" t="s">
+        <v>1873</v>
+      </c>
+      <c r="E202">
+        <v>1</v>
+      </c>
+      <c r="F202" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B203" t="s">
+        <v>2251</v>
+      </c>
+      <c r="D203" t="s">
+        <v>1879</v>
+      </c>
+      <c r="E203">
+        <v>1</v>
+      </c>
+      <c r="F203" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{466D624E-25C1-44D9-9018-E634E0D126E9}">
+  <dimension ref="A1:G36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:XFD36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1802</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1803</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>933</v>
+      </c>
+      <c r="F1" t="s">
+        <v>935</v>
+      </c>
+      <c r="G1" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2256</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2255</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1799</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2256</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2255</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1800</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2256</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2255</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1801</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1863</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2257</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1864</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1863</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2257</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1865</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1863</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2257</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1880</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2260</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1881</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1880</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2260</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1882</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1880</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2260</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1883</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2244</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2261</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1895</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2244</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2261</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1896</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2244</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2261</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1897</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1912</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2258</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1913</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1912</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2258</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1914</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1912</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2258</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1915</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1916</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2259</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1917</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1916</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2259</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1918</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1916</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2259</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1919</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>1924</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2254</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1920</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>1924</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2254</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1922</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>1924</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2254</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1941</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>1924</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2254</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1926</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2009</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2275</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2010</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2263</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2264</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1903</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2263</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2264</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1904</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2263</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2264</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1905</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2263</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2264</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1906</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>1999</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2062</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2283</v>
+      </c>
+      <c r="D29" t="s">
+        <v>2063</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>1965</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2249</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2272</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1989</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>1965</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2249</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2272</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1990</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>1965</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2249</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2272</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1991</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>1965</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2249</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2272</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1992</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1993</v>
+      </c>
+      <c r="G33" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>1965</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1970</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>2259</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1969</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>1965</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1964</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>2271</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1963</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>1965</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1964</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>2271</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1968</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB52779C-5C53-42CE-95EF-3563D2D1E710}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2284</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2285</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2286</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2287</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>2288</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>2289</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>2290</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>2291</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>2292</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>2293</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>2294</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>2295</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>2296</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>2297</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>2298</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>2299</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>2304</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>2301</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>2303</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>2302</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2150</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B43075C4-5ACD-4919-90D9-A4A10964658F}">
+  <dimension ref="A1:A177"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>2158</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>2161</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>2166</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>2175</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>2179</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>2181</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>2182</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>2186</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>2214</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>2223</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>2226</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>2228</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>2229</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>2231</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>2232</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>2233</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>2234</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>